--- a/Results/TAV Profit Sample.xlsx
+++ b/Results/TAV Profit Sample.xlsx
@@ -1547,7 +1547,7 @@
         <v>56150.4766380407</v>
       </c>
       <c r="R12">
-        <v>1868.90427217363</v>
+        <v>1868.90427217362</v>
       </c>
       <c r="S12">
         <v>1684.51429914122</v>
@@ -2849,7 +2849,7 @@
         <v>13189.1537262818</v>
       </c>
       <c r="R26">
-        <v>438.985868353314</v>
+        <v>438.985868353313</v>
       </c>
       <c r="S26">
         <v>395.674611788454</v>
@@ -4616,7 +4616,7 @@
         <v>13189.1537262818</v>
       </c>
       <c r="R45">
-        <v>438.985868353314</v>
+        <v>438.985868353313</v>
       </c>
       <c r="S45">
         <v>395.674611788454</v>
@@ -6011,7 +6011,7 @@
         <v>14348.0333423986</v>
       </c>
       <c r="R60">
-        <v>477.557848417831</v>
+        <v>477.55784841783</v>
       </c>
       <c r="S60">
         <v>430.441000271958</v>
@@ -7034,7 +7034,7 @@
         <v>25716.0905290683</v>
       </c>
       <c r="R71">
-        <v>855.930605241189</v>
+        <v>855.930605241188</v>
       </c>
       <c r="S71">
         <v>771.482715872048</v>
@@ -7127,7 +7127,7 @@
         <v>14348.0333423986</v>
       </c>
       <c r="R72">
-        <v>477.557848417831</v>
+        <v>477.55784841783</v>
       </c>
       <c r="S72">
         <v>430.441000271958</v>

--- a/Results/TAV Profit Sample.xlsx
+++ b/Results/TAV Profit Sample.xlsx
@@ -608,10 +608,10 @@
         <v>2020.5306</v>
       </c>
       <c r="O2">
-        <v>237863.71855</v>
+        <v>118931.859275</v>
       </c>
       <c r="P2">
-        <v>20425.5015654051</v>
+        <v>30631.1059238083</v>
       </c>
       <c r="Q2">
         <v>40836.7102822114</v>
@@ -626,10 +626,10 @@
         <v>12251.0130846634</v>
       </c>
       <c r="U2">
-        <v>21650.6028738714</v>
+        <v>31856.2072322746</v>
       </c>
       <c r="V2">
-        <v>-1256.23918920802</v>
+        <v>-11461.8435476112</v>
       </c>
       <c r="W2">
         <v>-20442.346597548</v>
@@ -650,7 +650,7 @@
         <v>19575.38264</v>
       </c>
       <c r="AC2">
-        <v>18319.143450792</v>
+        <v>8113.53909238882</v>
       </c>
     </row>
     <row r="3">
@@ -701,10 +701,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O3">
-        <v>406939.821195</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P3">
-        <v>34944.1688943282</v>
+        <v>52404.0271615423</v>
       </c>
       <c r="Q3">
         <v>69863.8854287563</v>
@@ -719,10 +719,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U3">
-        <v>37040.0854571909</v>
+        <v>54499.943724405</v>
       </c>
       <c r="V3">
-        <v>-3762.41822856398</v>
+        <v>-21222.2764957781</v>
       </c>
       <c r="W3">
         <v>-36586.2182001294</v>
@@ -743,7 +743,7 @@
         <v>3979.38264</v>
       </c>
       <c r="AC3">
-        <v>216.964411436016</v>
+        <v>-17242.8938557781</v>
       </c>
     </row>
     <row r="4">
@@ -794,10 +794,10 @@
         <v>3094.9512</v>
       </c>
       <c r="O4">
-        <v>278579.129833333</v>
+        <v>139289.564916667</v>
       </c>
       <c r="P4">
-        <v>23921.7585901141</v>
+        <v>35874.2681990547</v>
       </c>
       <c r="Q4">
         <v>47826.7778079954</v>
@@ -812,10 +812,10 @@
         <v>14348.0333423986</v>
       </c>
       <c r="U4">
-        <v>25356.5619243539</v>
+        <v>37309.0715332946</v>
       </c>
       <c r="V4">
-        <v>-879.597381955333</v>
+        <v>-12832.106990896</v>
       </c>
       <c r="W4">
         <v>-23349.8132655968</v>
@@ -836,7 +836,7 @@
         <v>-1968.61736</v>
       </c>
       <c r="AC4">
-        <v>-2848.21474195533</v>
+        <v>-14800.724350896</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         <v>928.6002</v>
       </c>
       <c r="O5">
-        <v>101734.95529875</v>
+        <v>50867.477649375</v>
       </c>
       <c r="P5">
-        <v>8736.04222358205</v>
+        <v>13101.0067903856</v>
       </c>
       <c r="Q5">
         <v>17465.9713571891</v>
@@ -905,10 +905,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U5">
-        <v>9260.02136429772</v>
+        <v>13624.9859311012</v>
       </c>
       <c r="V5">
-        <v>4646.705242859</v>
+        <v>281.740676055486</v>
       </c>
       <c r="W5">
         <v>-3559.24475003236</v>
@@ -929,7 +929,7 @@
         <v>7751.38264</v>
       </c>
       <c r="AC5">
-        <v>12398.087882859</v>
+        <v>8033.12331605549</v>
       </c>
     </row>
     <row r="6">
@@ -1073,10 +1073,10 @@
         <v>3535.9632</v>
       </c>
       <c r="O7">
-        <v>358509.910931667</v>
+        <v>179254.955465833</v>
       </c>
       <c r="P7">
-        <v>30785.4631702007</v>
+        <v>46167.4236130912</v>
       </c>
       <c r="Q7">
         <v>61549.3840559817</v>
@@ -1091,10 +1091,10 @@
         <v>18464.8152167945</v>
       </c>
       <c r="U7">
-        <v>32631.9446918801</v>
+        <v>48013.9051347707</v>
       </c>
       <c r="V7">
-        <v>5441.39372491439</v>
+        <v>-9940.56671797615</v>
       </c>
       <c r="W7">
         <v>-23476.0456391872</v>
@@ -1115,7 +1115,7 @@
         <v>-6828.61736</v>
       </c>
       <c r="AC7">
-        <v>-1387.22363508561</v>
+        <v>-16769.1840779762</v>
       </c>
     </row>
     <row r="8">
@@ -1166,10 +1166,10 @@
         <v>3450.3216</v>
       </c>
       <c r="O8">
-        <v>306437.042816667</v>
+        <v>153218.521408333</v>
       </c>
       <c r="P8">
-        <v>26313.9344491255</v>
+        <v>39461.6950189602</v>
       </c>
       <c r="Q8">
         <v>52609.4555887949</v>
@@ -1184,10 +1184,10 @@
         <v>15782.8366766385</v>
       </c>
       <c r="U8">
-        <v>27892.2181167893</v>
+        <v>41039.9786866241</v>
       </c>
       <c r="V8">
-        <v>17479.7401598491</v>
+        <v>4331.97959001442</v>
       </c>
       <c r="W8">
         <v>-7237.49731215644</v>
@@ -1208,7 +1208,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC8">
-        <v>6879.12279984913</v>
+        <v>-6268.63776998558</v>
       </c>
     </row>
     <row r="9">
@@ -1259,10 +1259,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O9">
-        <v>250721.21685</v>
+        <v>125360.608425</v>
       </c>
       <c r="P9">
-        <v>21529.5827311027</v>
+        <v>32286.8413791493</v>
       </c>
       <c r="Q9">
         <v>43044.1000271958</v>
@@ -1277,10 +1277,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U9">
-        <v>22820.9057319186</v>
+        <v>33578.1643799651</v>
       </c>
       <c r="V9">
-        <v>1469.8624762402</v>
+        <v>-9287.39617180638</v>
       </c>
       <c r="W9">
         <v>-18753.3318190371</v>
@@ -1301,7 +1301,7 @@
         <v>13899.38264</v>
       </c>
       <c r="AC9">
-        <v>15369.2451162402</v>
+        <v>4611.98646819361</v>
       </c>
     </row>
     <row r="10">
@@ -1352,10 +1352,10 @@
         <v>3027.3804</v>
       </c>
       <c r="O10">
-        <v>339116.5176625</v>
+        <v>169558.25883125</v>
       </c>
       <c r="P10">
-        <v>29120.1407452735</v>
+        <v>43670.0226346186</v>
       </c>
       <c r="Q10">
         <v>58219.9045239636</v>
@@ -1370,10 +1370,10 @@
         <v>17465.9713571891</v>
       </c>
       <c r="U10">
-        <v>30866.7378809924</v>
+        <v>45416.6197703375</v>
       </c>
       <c r="V10">
-        <v>10267.8438761967</v>
+        <v>-4282.03801314839</v>
       </c>
       <c r="W10">
         <v>-17085.3227667745</v>
@@ -1394,7 +1394,7 @@
         <v>23773.38264</v>
       </c>
       <c r="AC10">
-        <v>34041.2265161967</v>
+        <v>19491.3446268516</v>
       </c>
     </row>
     <row r="11">
@@ -1445,10 +1445,10 @@
         <v>4015.4532</v>
       </c>
       <c r="O11">
-        <v>445994.47228125</v>
+        <v>222997.236140625</v>
       </c>
       <c r="P11">
-        <v>38297.8154351346</v>
+        <v>57433.3236071405</v>
       </c>
       <c r="Q11">
         <v>76568.8317791465</v>
@@ -1463,10 +1463,10 @@
         <v>22970.6495337439</v>
       </c>
       <c r="U11">
-        <v>40594.880388509</v>
+        <v>59730.3885605149</v>
       </c>
       <c r="V11">
-        <v>13769.312345235</v>
+        <v>-5366.19582677096</v>
       </c>
       <c r="W11">
         <v>-22204.6390454025</v>
@@ -1487,7 +1487,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC11">
-        <v>3168.69498523497</v>
+        <v>-15966.813186771</v>
       </c>
     </row>
     <row r="12">
@@ -1538,16 +1538,16 @@
         <v>2944.656</v>
       </c>
       <c r="O12">
-        <v>327062.61300625</v>
+        <v>163531.306503125</v>
       </c>
       <c r="P12">
-        <v>28085.064652432</v>
+        <v>42117.7706452364</v>
       </c>
       <c r="Q12">
         <v>56150.4766380407</v>
       </c>
       <c r="R12">
-        <v>1868.90427217362</v>
+        <v>1868.90427217363</v>
       </c>
       <c r="S12">
         <v>1684.51429914122</v>
@@ -1556,10 +1556,10 @@
         <v>16845.1429914122</v>
       </c>
       <c r="U12">
-        <v>29769.5789515732</v>
+        <v>43802.2849443776</v>
       </c>
       <c r="V12">
-        <v>7866.62003983897</v>
+        <v>-6166.08595296538</v>
       </c>
       <c r="W12">
         <v>-18514.2776466285</v>
@@ -1580,7 +1580,7 @@
         <v>10979.38264</v>
       </c>
       <c r="AC12">
-        <v>18846.002679839</v>
+        <v>4813.29668703462</v>
       </c>
     </row>
     <row r="13">
@@ -1631,10 +1631,10 @@
         <v>1856.9892</v>
       </c>
       <c r="O13">
-        <v>185308.69424875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P13">
-        <v>15912.5698006163</v>
+        <v>23863.287250102</v>
       </c>
       <c r="Q13">
         <v>31814.0046995877</v>
@@ -1649,10 +1649,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U13">
-        <v>16866.9899416039</v>
+        <v>24817.7073910896</v>
       </c>
       <c r="V13">
-        <v>4381.8706682724</v>
+        <v>-3568.84678121331</v>
       </c>
       <c r="W13">
         <v>-10565.1440897114</v>
@@ -1673,7 +1673,7 @@
         <v>1531.38264</v>
       </c>
       <c r="AC13">
-        <v>5913.2533082724</v>
+        <v>-2037.46414121331</v>
       </c>
     </row>
     <row r="14">
@@ -1724,10 +1724,10 @@
         <v>3402.3858</v>
       </c>
       <c r="O14">
-        <v>486817.02938375</v>
+        <v>243408.514691875</v>
       </c>
       <c r="P14">
-        <v>41803.2731362244</v>
+        <v>62690.2836778482</v>
       </c>
       <c r="Q14">
         <v>83577.2942194719</v>
@@ -1742,10 +1742,10 @@
         <v>25073.1882658416</v>
       </c>
       <c r="U14">
-        <v>44310.5919628085</v>
+        <v>65197.6025044323</v>
       </c>
       <c r="V14">
-        <v>7363.06710303305</v>
+        <v>-13523.9434385907</v>
       </c>
       <c r="W14">
         <v>-31903.6351536303</v>
@@ -1766,7 +1766,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC14">
-        <v>-3237.55025696695</v>
+        <v>-24124.5607985907</v>
       </c>
     </row>
     <row r="15">
@@ -1817,10 +1817,10 @@
         <v>1882.0164</v>
       </c>
       <c r="O15">
-        <v>185308.69424875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P15">
-        <v>15912.5698006163</v>
+        <v>23863.287250102</v>
       </c>
       <c r="Q15">
         <v>31814.0046995877</v>
@@ -1835,10 +1835,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U15">
-        <v>16866.9899416039</v>
+        <v>24817.7073910896</v>
       </c>
       <c r="V15">
-        <v>262.307868272401</v>
+        <v>-7688.40958121331</v>
       </c>
       <c r="W15">
         <v>-14684.7068897114</v>
@@ -1859,7 +1859,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC15">
-        <v>-10338.3094917276</v>
+        <v>-18289.0269412133</v>
       </c>
     </row>
     <row r="16">
@@ -2003,10 +2003,10 @@
         <v>2778.2502</v>
       </c>
       <c r="O17">
-        <v>411922.10178625</v>
+        <v>205961.050893125</v>
       </c>
       <c r="P17">
-        <v>35372.000346036</v>
+        <v>53045.6246504869</v>
       </c>
       <c r="Q17">
         <v>70719.2489549378</v>
@@ -2021,10 +2021,10 @@
         <v>21215.7746864813</v>
       </c>
       <c r="U17">
-        <v>37493.5778146841</v>
+        <v>55167.202119135</v>
       </c>
       <c r="V17">
-        <v>-2975.8779282028</v>
+        <v>-20649.5022326537</v>
       </c>
       <c r="W17">
         <v>-36201.5490684564</v>
@@ -2045,7 +2045,7 @@
         <v>-6556.61736</v>
       </c>
       <c r="AC17">
-        <v>-9532.4952882028</v>
+        <v>-27206.1195926537</v>
       </c>
     </row>
     <row r="18">
@@ -2096,10 +2096,10 @@
         <v>1070.85</v>
       </c>
       <c r="O18">
-        <v>102431.403123333</v>
+        <v>51215.7015616667</v>
       </c>
       <c r="P18">
-        <v>8795.84662005733</v>
+        <v>13190.6924608832</v>
       </c>
       <c r="Q18">
         <v>17585.5383017091</v>
@@ -2114,10 +2114,10 @@
         <v>5275.66149051272</v>
       </c>
       <c r="U18">
-        <v>9323.41276910861</v>
+        <v>13718.2586099345</v>
       </c>
       <c r="V18">
-        <v>5135.59872140412</v>
+        <v>740.752880578249</v>
       </c>
       <c r="W18">
         <v>-3126.52681119635</v>
@@ -2138,7 +2138,7 @@
         <v>-8306.61736</v>
       </c>
       <c r="AC18">
-        <v>-3171.01863859588</v>
+        <v>-7565.86447942175</v>
       </c>
     </row>
     <row r="19">
@@ -2189,10 +2189,10 @@
         <v>1606.1562</v>
       </c>
       <c r="O19">
-        <v>153647.104685</v>
+        <v>76823.5523425</v>
       </c>
       <c r="P19">
-        <v>13193.769930086</v>
+        <v>19786.0386913248</v>
       </c>
       <c r="Q19">
         <v>26378.3074525636</v>
@@ -2207,10 +2207,10 @@
         <v>7913.49223576908</v>
       </c>
       <c r="U19">
-        <v>13985.1191536629</v>
+        <v>20577.3879149017</v>
       </c>
       <c r="V19">
-        <v>4052.02428210617</v>
+        <v>-2540.24447913263</v>
       </c>
       <c r="W19">
         <v>-8341.16401679452</v>
@@ -2231,7 +2231,7 @@
         <v>869.38264</v>
       </c>
       <c r="AC19">
-        <v>4921.40692210617</v>
+        <v>-1670.86183913263</v>
       </c>
     </row>
     <row r="20">
@@ -2282,10 +2282,10 @@
         <v>1832.0346</v>
       </c>
       <c r="O20">
-        <v>179254.955465833</v>
+        <v>89627.4777329167</v>
       </c>
       <c r="P20">
-        <v>15392.7315851003</v>
+        <v>23083.7118065456</v>
       </c>
       <c r="Q20">
         <v>30774.6920279909</v>
@@ -2300,10 +2300,10 @@
         <v>9232.40760839726</v>
       </c>
       <c r="U20">
-        <v>16315.9723459401</v>
+        <v>24006.9525673853</v>
       </c>
       <c r="V20">
-        <v>7239.6148624572</v>
+        <v>-451.365358988074</v>
       </c>
       <c r="W20">
         <v>-7219.10481959361</v>
@@ -2324,7 +2324,7 @@
         <v>17689.38264</v>
       </c>
       <c r="AC20">
-        <v>24928.9975024572</v>
+        <v>17238.0172810119</v>
       </c>
     </row>
     <row r="21">
@@ -2468,10 +2468,10 @@
         <v>252.6348</v>
       </c>
       <c r="O22">
-        <v>29732.96481875</v>
+        <v>14866.482409375</v>
       </c>
       <c r="P22">
-        <v>2553.18769567564</v>
+        <v>3828.88824047603</v>
       </c>
       <c r="Q22">
         <v>5104.58878527643</v>
@@ -2486,10 +2486,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U22">
-        <v>2706.32535923393</v>
+        <v>3982.02590403433</v>
       </c>
       <c r="V22">
-        <v>1374.366076349</v>
+        <v>98.6655315486018</v>
       </c>
       <c r="W22">
         <v>-1023.8973496935</v>
@@ -2510,7 +2510,7 @@
         <v>10399.38264</v>
       </c>
       <c r="AC22">
-        <v>11773.748716349</v>
+        <v>10498.0481715486</v>
       </c>
     </row>
     <row r="23">
@@ -2561,10 +2561,10 @@
         <v>1734.2028</v>
       </c>
       <c r="O23">
-        <v>203469.9105975</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P23">
-        <v>17472.0844471641</v>
+        <v>26202.0135807711</v>
       </c>
       <c r="Q23">
         <v>34931.9427143782</v>
@@ -2579,10 +2579,10 @@
         <v>10479.5828143134</v>
       </c>
       <c r="U23">
-        <v>18520.0427285954</v>
+        <v>27249.9718622025</v>
       </c>
       <c r="V23">
-        <v>2890.27288571801</v>
+        <v>-5839.65624788903</v>
       </c>
       <c r="W23">
         <v>-13521.6271000647</v>
@@ -2603,7 +2603,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC23">
-        <v>-7710.34447428199</v>
+        <v>-16440.273607889</v>
       </c>
     </row>
     <row r="24">
@@ -2840,16 +2840,16 @@
         <v>757.8582</v>
       </c>
       <c r="O26">
-        <v>76823.5523425</v>
+        <v>38411.77617125</v>
       </c>
       <c r="P26">
-        <v>6596.884965043</v>
+        <v>9893.0193456624</v>
       </c>
       <c r="Q26">
         <v>13189.1537262818</v>
       </c>
       <c r="R26">
-        <v>438.985868353313</v>
+        <v>438.985868353314</v>
       </c>
       <c r="S26">
         <v>395.674611788454</v>
@@ -2858,10 +2858,10 @@
         <v>3956.74611788454</v>
       </c>
       <c r="U26">
-        <v>6992.55957683146</v>
+        <v>10288.6939574509</v>
       </c>
       <c r="V26">
-        <v>-555.550258946915</v>
+        <v>-3851.68463956632</v>
       </c>
       <c r="W26">
         <v>-6752.14440839726</v>
@@ -2882,7 +2882,7 @@
         <v>19221.38264</v>
       </c>
       <c r="AC26">
-        <v>18665.8323810531</v>
+        <v>15369.6980004337</v>
       </c>
     </row>
     <row r="27">
@@ -2933,10 +2933,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O27">
-        <v>267596.68336875</v>
+        <v>133798.341684375</v>
       </c>
       <c r="P27">
-        <v>22978.6892610807</v>
+        <v>34459.9941642843</v>
       </c>
       <c r="Q27">
         <v>45941.2990674879</v>
@@ -2951,10 +2951,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U27">
-        <v>24356.9282331054</v>
+        <v>35838.2331363089</v>
       </c>
       <c r="V27">
-        <v>960.69388714098</v>
+        <v>-10520.6110160626</v>
       </c>
       <c r="W27">
         <v>-20623.6769472415</v>
@@ -2975,7 +2975,7 @@
         <v>32559.38264</v>
       </c>
       <c r="AC27">
-        <v>33520.076527141</v>
+        <v>22038.7716239374</v>
       </c>
     </row>
     <row r="28">
@@ -3026,10 +3026,10 @@
         <v>4541.0442</v>
       </c>
       <c r="O28">
-        <v>463271.735621875</v>
+        <v>231635.867810937</v>
       </c>
       <c r="P28">
-        <v>39781.4245015407</v>
+        <v>59658.218125255</v>
       </c>
       <c r="Q28">
         <v>79535.0117489692</v>
@@ -3044,10 +3044,10 @@
         <v>23860.5035246908</v>
       </c>
       <c r="U28">
-        <v>42167.4748540098</v>
+        <v>62044.268477724</v>
       </c>
       <c r="V28">
-        <v>24076.107870681</v>
+        <v>4199.31424696673</v>
       </c>
       <c r="W28">
         <v>-13291.4290242785</v>
@@ -3068,7 +3068,7 @@
         <v>715.38264</v>
       </c>
       <c r="AC28">
-        <v>24791.490510681</v>
+        <v>4914.69688696673</v>
       </c>
     </row>
     <row r="29">
@@ -3119,10 +3119,10 @@
         <v>2944.656</v>
       </c>
       <c r="O29">
-        <v>411922.10178625</v>
+        <v>205961.050893125</v>
       </c>
       <c r="P29">
-        <v>35372.000346036</v>
+        <v>53045.6246504869</v>
       </c>
       <c r="Q29">
         <v>70719.2489549378</v>
@@ -3137,10 +3137,10 @@
         <v>21215.7746864813</v>
       </c>
       <c r="U29">
-        <v>37493.5778146841</v>
+        <v>55167.202119135</v>
       </c>
       <c r="V29">
-        <v>-8871.5471282028</v>
+        <v>-26545.1714326537</v>
       </c>
       <c r="W29">
         <v>-42097.2182684564</v>
@@ -3161,7 +3161,7 @@
         <v>15649.38264</v>
       </c>
       <c r="AC29">
-        <v>6777.8355117972</v>
+        <v>-10895.7887926537</v>
       </c>
     </row>
     <row r="30">
@@ -3212,10 +3212,10 @@
         <v>941.1138</v>
       </c>
       <c r="O30">
-        <v>92654.347124375</v>
+        <v>46327.1735621875</v>
       </c>
       <c r="P30">
-        <v>7956.28490030814</v>
+        <v>11931.643625051</v>
       </c>
       <c r="Q30">
         <v>15907.0023497938</v>
@@ -3230,10 +3230,10 @@
         <v>4772.10070493815</v>
       </c>
       <c r="U30">
-        <v>8433.49497080195</v>
+        <v>12408.8536955448</v>
       </c>
       <c r="V30">
-        <v>5122.3345341362</v>
+        <v>1146.97580939334</v>
       </c>
       <c r="W30">
         <v>-2351.17284485569</v>
@@ -3254,7 +3254,7 @@
         <v>19575.38264</v>
       </c>
       <c r="AC30">
-        <v>24697.7171741362</v>
+        <v>20722.3584493933</v>
       </c>
     </row>
     <row r="31">
@@ -3305,10 +3305,10 @@
         <v>3788.532</v>
       </c>
       <c r="O31">
-        <v>445994.47228125</v>
+        <v>222997.236140625</v>
       </c>
       <c r="P31">
-        <v>38297.8154351346</v>
+        <v>57433.3236071405</v>
       </c>
       <c r="Q31">
         <v>76568.8317791465</v>
@@ -3323,10 +3323,10 @@
         <v>22970.6495337439</v>
       </c>
       <c r="U31">
-        <v>40594.880388509</v>
+        <v>59730.3885605149</v>
       </c>
       <c r="V31">
-        <v>3384.90114523497</v>
+        <v>-15750.607026771</v>
       </c>
       <c r="W31">
         <v>-32589.0502454025</v>
@@ -3347,7 +3347,7 @@
         <v>13137.38264</v>
       </c>
       <c r="AC31">
-        <v>16522.283785235</v>
+        <v>-2613.22438677096</v>
       </c>
     </row>
     <row r="32">
@@ -3398,10 +3398,10 @@
         <v>867.1938</v>
       </c>
       <c r="O32">
-        <v>101734.95529875</v>
+        <v>50867.477649375</v>
       </c>
       <c r="P32">
-        <v>8736.04222358205</v>
+        <v>13101.0067903856</v>
       </c>
       <c r="Q32">
         <v>17465.9713571891</v>
@@ -3416,10 +3416,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U32">
-        <v>9260.02136429772</v>
+        <v>13624.9859311012</v>
       </c>
       <c r="V32">
-        <v>4730.543842859</v>
+        <v>365.579276055485</v>
       </c>
       <c r="W32">
         <v>-3475.40615003236</v>
@@ -3440,7 +3440,7 @@
         <v>-100.61736</v>
       </c>
       <c r="AC32">
-        <v>4629.926482859</v>
+        <v>264.961916055485</v>
       </c>
     </row>
     <row r="33">
@@ -3491,10 +3491,10 @@
         <v>2421.9096</v>
       </c>
       <c r="O33">
-        <v>222863.303866667</v>
+        <v>111431.651933333</v>
       </c>
       <c r="P33">
-        <v>19137.4068720913</v>
+        <v>28699.4145592438</v>
       </c>
       <c r="Q33">
         <v>38261.4222463963</v>
@@ -3509,10 +3509,10 @@
         <v>11478.4266739189</v>
       </c>
       <c r="U33">
-        <v>20285.2495394832</v>
+        <v>29847.2572266357</v>
       </c>
       <c r="V33">
-        <v>13797.6667344357</v>
+        <v>4235.65904728321</v>
       </c>
       <c r="W33">
         <v>-4178.50597247741</v>
@@ -3533,7 +3533,7 @@
         <v>15295.38264</v>
       </c>
       <c r="AC33">
-        <v>29093.0493744357</v>
+        <v>19531.0416872832</v>
       </c>
     </row>
     <row r="34">
@@ -3584,10 +3584,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O34">
-        <v>406939.821195</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P34">
-        <v>34944.1688943282</v>
+        <v>52404.0271615423</v>
       </c>
       <c r="Q34">
         <v>69863.8854287563</v>
@@ -3602,10 +3602,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U34">
-        <v>37040.0854571909</v>
+        <v>54499.943724405</v>
       </c>
       <c r="V34">
-        <v>4792.09677143602</v>
+        <v>-12667.7614957781</v>
       </c>
       <c r="W34">
         <v>-28031.7032001294</v>
@@ -3626,7 +3626,7 @@
         <v>21679.38264</v>
       </c>
       <c r="AC34">
-        <v>26471.479411436</v>
+        <v>9011.62114422195</v>
       </c>
     </row>
     <row r="35">
@@ -3677,10 +3677,10 @@
         <v>267.7818</v>
       </c>
       <c r="O35">
-        <v>29732.96481875</v>
+        <v>14866.482409375</v>
       </c>
       <c r="P35">
-        <v>2553.18769567564</v>
+        <v>3828.88824047603</v>
       </c>
       <c r="Q35">
         <v>5104.58878527643</v>
@@ -3695,10 +3695,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U35">
-        <v>2706.32535923393</v>
+        <v>3982.02590403433</v>
       </c>
       <c r="V35">
-        <v>715.753076348998</v>
+        <v>-559.947468451398</v>
       </c>
       <c r="W35">
         <v>-1682.5103496935</v>
@@ -3719,7 +3719,7 @@
         <v>3925.38264</v>
       </c>
       <c r="AC35">
-        <v>4641.135716349</v>
+        <v>3365.4351715486</v>
       </c>
     </row>
     <row r="36">
@@ -3863,10 +3863,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O37">
-        <v>277963.041373125</v>
+        <v>138981.520686562</v>
       </c>
       <c r="P37">
-        <v>23868.8547009244</v>
+        <v>35794.930875153</v>
       </c>
       <c r="Q37">
         <v>47721.0070493815</v>
@@ -3881,10 +3881,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U37">
-        <v>25300.4849124059</v>
+        <v>37226.5610866344</v>
       </c>
       <c r="V37">
-        <v>-3978.3353975914</v>
+        <v>-15904.41157182</v>
       </c>
       <c r="W37">
         <v>-26398.8575345671</v>
@@ -3905,7 +3905,7 @@
         <v>7751.38264</v>
       </c>
       <c r="AC37">
-        <v>3773.0472424086</v>
+        <v>-8153.02893181996</v>
       </c>
     </row>
     <row r="38">
@@ -3956,10 +3956,10 @@
         <v>3713.9322</v>
       </c>
       <c r="O38">
-        <v>406939.821195</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P38">
-        <v>34944.1688943282</v>
+        <v>52404.0271615423</v>
       </c>
       <c r="Q38">
         <v>69863.8854287563</v>
@@ -3974,10 +3974,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U38">
-        <v>37040.0854571909</v>
+        <v>54499.943724405</v>
       </c>
       <c r="V38">
-        <v>-1112.64762856399</v>
+        <v>-18572.5058957781</v>
       </c>
       <c r="W38">
         <v>-33936.4476001294</v>
@@ -3998,7 +3998,7 @@
         <v>24399.38264</v>
       </c>
       <c r="AC38">
-        <v>23286.735011436</v>
+        <v>5826.87674422194</v>
       </c>
     </row>
     <row r="39">
@@ -4049,10 +4049,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O39">
-        <v>267596.68336875</v>
+        <v>133798.341684375</v>
       </c>
       <c r="P39">
-        <v>22978.6892610807</v>
+        <v>34459.9941642843</v>
       </c>
       <c r="Q39">
         <v>45941.2990674879</v>
@@ -4067,10 +4067,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U39">
-        <v>24356.9282331054</v>
+        <v>35838.2331363089</v>
       </c>
       <c r="V39">
-        <v>960.69388714098</v>
+        <v>-10520.6110160626</v>
       </c>
       <c r="W39">
         <v>-20623.6769472415</v>
@@ -4091,7 +4091,7 @@
         <v>18451.38264</v>
       </c>
       <c r="AC39">
-        <v>19412.076527141</v>
+        <v>7930.77162393741</v>
       </c>
     </row>
     <row r="40">
@@ -4142,10 +4142,10 @@
         <v>1349.4162</v>
       </c>
       <c r="O40">
-        <v>128039.253904167</v>
+        <v>64019.6269520833</v>
       </c>
       <c r="P40">
-        <v>10994.8082750717</v>
+        <v>16488.365576104</v>
       </c>
       <c r="Q40">
         <v>21981.9228771363</v>
@@ -4160,10 +4160,10 @@
         <v>6594.5768631409</v>
       </c>
       <c r="U40">
-        <v>11654.2659613858</v>
+        <v>17147.8232624181</v>
       </c>
       <c r="V40">
-        <v>5490.29210175514</v>
+        <v>-3.26519927719346</v>
       </c>
       <c r="W40">
         <v>-4837.36481399543</v>
@@ -4184,7 +4184,7 @@
         <v>1549.38264</v>
       </c>
       <c r="AC40">
-        <v>7039.67474175514</v>
+        <v>1546.11744072281</v>
       </c>
     </row>
     <row r="41">
@@ -4235,10 +4235,10 @@
         <v>757.8582</v>
       </c>
       <c r="O41">
-        <v>112342.39139625</v>
+        <v>56171.195698125</v>
       </c>
       <c r="P41">
-        <v>9646.90918528255</v>
+        <v>14466.9885410419</v>
       </c>
       <c r="Q41">
         <v>19287.0678968012</v>
@@ -4253,10 +4253,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U41">
-        <v>10225.5212221866</v>
+        <v>15045.6005779459</v>
       </c>
       <c r="V41">
-        <v>337.402346853782</v>
+        <v>-4482.67700890555</v>
       </c>
       <c r="W41">
         <v>-8724.14432776085</v>
@@ -4277,7 +4277,7 @@
         <v>10979.38264</v>
       </c>
       <c r="AC41">
-        <v>11316.7849868538</v>
+        <v>6496.70563109445</v>
       </c>
     </row>
     <row r="42">
@@ -4328,10 +4328,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O42">
-        <v>250721.21685</v>
+        <v>125360.608425</v>
       </c>
       <c r="P42">
-        <v>21529.5827311027</v>
+        <v>32286.8413791493</v>
       </c>
       <c r="Q42">
         <v>43044.1000271958</v>
@@ -4346,10 +4346,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U42">
-        <v>22820.9057319186</v>
+        <v>33578.1643799651</v>
       </c>
       <c r="V42">
-        <v>12163.0374762402</v>
+        <v>1405.77882819362</v>
       </c>
       <c r="W42">
         <v>-8060.1568190371</v>
@@ -4370,7 +4370,7 @@
         <v>-3310.61736</v>
       </c>
       <c r="AC42">
-        <v>8852.4201162402</v>
+        <v>-1904.83853180638</v>
       </c>
     </row>
     <row r="43">
@@ -4421,10 +4421,10 @@
         <v>4077.6516</v>
       </c>
       <c r="O43">
-        <v>362152.868783333</v>
+        <v>181076.434391667</v>
       </c>
       <c r="P43">
-        <v>31098.2861671483</v>
+        <v>46636.5486587712</v>
       </c>
       <c r="Q43">
         <v>62174.811150394</v>
@@ -4439,10 +4439,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U43">
-        <v>32963.5305016601</v>
+        <v>48501.792993283</v>
       </c>
       <c r="V43">
-        <v>-966.04555654194</v>
+        <v>-16504.3080481648</v>
       </c>
       <c r="W43">
         <v>-30177.3262052758</v>
@@ -4463,7 +4463,7 @@
         <v>5149.38264</v>
       </c>
       <c r="AC43">
-        <v>4183.33708345806</v>
+        <v>-11354.9254081648</v>
       </c>
     </row>
     <row r="44">
@@ -4514,10 +4514,10 @@
         <v>2509.3398</v>
       </c>
       <c r="O44">
-        <v>247078.258998333</v>
+        <v>123539.129499167</v>
       </c>
       <c r="P44">
-        <v>21216.759734155</v>
+        <v>31817.7163334693</v>
       </c>
       <c r="Q44">
         <v>42418.6729327836</v>
@@ -4532,10 +4532,10 @@
         <v>12725.6018798351</v>
       </c>
       <c r="U44">
-        <v>22489.3199221385</v>
+        <v>33090.2765214528</v>
       </c>
       <c r="V44">
-        <v>15557.8017576965</v>
+        <v>4956.84515838226</v>
       </c>
       <c r="W44">
         <v>-4371.55125294851</v>
@@ -4556,7 +4556,7 @@
         <v>32559.38264</v>
       </c>
       <c r="AC44">
-        <v>48117.1843976965</v>
+        <v>37516.2277983823</v>
       </c>
     </row>
     <row r="45">
@@ -4607,16 +4607,16 @@
         <v>785.334</v>
       </c>
       <c r="O45">
-        <v>76823.5523425</v>
+        <v>38411.77617125</v>
       </c>
       <c r="P45">
-        <v>6596.884965043</v>
+        <v>9893.0193456624</v>
       </c>
       <c r="Q45">
         <v>13189.1537262818</v>
       </c>
       <c r="R45">
-        <v>438.985868353313</v>
+        <v>438.985868353314</v>
       </c>
       <c r="S45">
         <v>395.674611788454</v>
@@ -4625,10 +4625,10 @@
         <v>3956.74611788454</v>
       </c>
       <c r="U45">
-        <v>6992.55957683146</v>
+        <v>10288.6939574509</v>
       </c>
       <c r="V45">
-        <v>3104.07054105309</v>
+        <v>-192.063839566315</v>
       </c>
       <c r="W45">
         <v>-3092.52360839726</v>
@@ -4649,7 +4649,7 @@
         <v>16837.38264</v>
       </c>
       <c r="AC45">
-        <v>19941.4531810531</v>
+        <v>16645.3188004337</v>
       </c>
     </row>
     <row r="46">
@@ -4700,10 +4700,10 @@
         <v>289.0998</v>
       </c>
       <c r="O46">
-        <v>27857.9129833333</v>
+        <v>13928.9564916667</v>
       </c>
       <c r="P46">
-        <v>2392.17585901141</v>
+        <v>3587.42681990547</v>
       </c>
       <c r="Q46">
         <v>4782.67778079954</v>
@@ -4718,10 +4718,10 @@
         <v>1434.80333423986</v>
       </c>
       <c r="U46">
-        <v>2535.65619243539</v>
+        <v>3730.90715332946</v>
       </c>
       <c r="V46">
-        <v>64.306941804467</v>
+        <v>-1130.9440190896</v>
       </c>
       <c r="W46">
         <v>-2182.71464655968</v>
@@ -4742,7 +4742,7 @@
         <v>-5740.61736</v>
       </c>
       <c r="AC46">
-        <v>-5676.31041819553</v>
+        <v>-6871.5613790896</v>
       </c>
     </row>
     <row r="47">
@@ -4793,10 +4793,10 @@
         <v>3508.3158</v>
       </c>
       <c r="O47">
-        <v>486817.02938375</v>
+        <v>243408.514691875</v>
       </c>
       <c r="P47">
-        <v>41803.2731362244</v>
+        <v>62690.2836778482</v>
       </c>
       <c r="Q47">
         <v>83577.2942194719</v>
@@ -4811,10 +4811,10 @@
         <v>25073.1882658416</v>
       </c>
       <c r="U47">
-        <v>44310.5919628085</v>
+        <v>65197.6025044323</v>
       </c>
       <c r="V47">
-        <v>16164.692103033</v>
+        <v>-4722.31843859075</v>
       </c>
       <c r="W47">
         <v>-23102.0101536304</v>
@@ -4835,7 +4835,7 @@
         <v>21751.38264</v>
       </c>
       <c r="AC47">
-        <v>37916.074743033</v>
+        <v>17029.0642014092</v>
       </c>
     </row>
     <row r="48">
@@ -4886,10 +4886,10 @@
         <v>1767.9552</v>
       </c>
       <c r="O48">
-        <v>179254.955465833</v>
+        <v>89627.4777329167</v>
       </c>
       <c r="P48">
-        <v>15392.7315851003</v>
+        <v>23083.7118065456</v>
       </c>
       <c r="Q48">
         <v>30774.6920279909</v>
@@ -4904,10 +4904,10 @@
         <v>9232.40760839726</v>
       </c>
       <c r="U48">
-        <v>16315.9723459401</v>
+        <v>24006.9525673853</v>
       </c>
       <c r="V48">
-        <v>4059.9104624572</v>
+        <v>-3631.06975898807</v>
       </c>
       <c r="W48">
         <v>-10398.8092195936</v>
@@ -4928,7 +4928,7 @@
         <v>18559.38264</v>
       </c>
       <c r="AC48">
-        <v>22619.2931024572</v>
+        <v>14928.3128810119</v>
       </c>
     </row>
     <row r="49">
@@ -4979,10 +4979,10 @@
         <v>577.8894</v>
       </c>
       <c r="O49">
-        <v>67823.3035325</v>
+        <v>33911.65176625</v>
       </c>
       <c r="P49">
-        <v>5824.0281490547</v>
+        <v>8734.00452692371</v>
       </c>
       <c r="Q49">
         <v>11643.9809047927</v>
@@ -4997,10 +4997,10 @@
         <v>3493.19427143782</v>
       </c>
       <c r="U49">
-        <v>6173.34757619848</v>
+        <v>9083.32395406749</v>
       </c>
       <c r="V49">
-        <v>1400.09609523934</v>
+        <v>-1509.88028262968</v>
       </c>
       <c r="W49">
         <v>-4070.53723335491</v>
@@ -5021,7 +5021,7 @@
         <v>32985.38264</v>
       </c>
       <c r="AC49">
-        <v>34385.4787352393</v>
+        <v>31475.5023573703</v>
       </c>
     </row>
     <row r="50">
@@ -5165,10 +5165,10 @@
         <v>535.5504</v>
       </c>
       <c r="O51">
-        <v>74894.9275975</v>
+        <v>37447.46379875</v>
       </c>
       <c r="P51">
-        <v>6431.27279018837</v>
+        <v>9644.65902736125</v>
       </c>
       <c r="Q51">
         <v>12858.0452645341</v>
@@ -5183,10 +5183,10 @@
         <v>3857.41357936024</v>
       </c>
       <c r="U51">
-        <v>6817.01414812439</v>
+        <v>10030.4003852973</v>
       </c>
       <c r="V51">
-        <v>10.2698312358525</v>
+        <v>-3203.11640593703</v>
       </c>
       <c r="W51">
         <v>-6030.7612851739</v>
@@ -5207,7 +5207,7 @@
         <v>18559.38264</v>
       </c>
       <c r="AC51">
-        <v>18569.6524712359</v>
+        <v>15356.266234063</v>
       </c>
     </row>
     <row r="52">
@@ -5258,10 +5258,10 @@
         <v>3788.532</v>
       </c>
       <c r="O52">
-        <v>561711.95698125</v>
+        <v>280855.978490625</v>
       </c>
       <c r="P52">
-        <v>48234.5459264127</v>
+        <v>72334.9427052094</v>
       </c>
       <c r="Q52">
         <v>96435.3394840061</v>
@@ -5276,10 +5276,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U52">
-        <v>51127.6061109329</v>
+        <v>75228.0028897296</v>
       </c>
       <c r="V52">
-        <v>4552.3277342689</v>
+        <v>-19548.0690445278</v>
       </c>
       <c r="W52">
         <v>-40755.4056388043</v>
@@ -5300,7 +5300,7 @@
         <v>19149.38264</v>
       </c>
       <c r="AC52">
-        <v>23701.7103742689</v>
+        <v>-398.68640452778</v>
       </c>
     </row>
     <row r="53">
@@ -5351,10 +5351,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O53">
-        <v>250721.21685</v>
+        <v>125360.608425</v>
       </c>
       <c r="P53">
-        <v>21529.5827311027</v>
+        <v>32286.8413791493</v>
       </c>
       <c r="Q53">
         <v>43044.1000271958</v>
@@ -5369,10 +5369,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U53">
-        <v>22820.9057319186</v>
+        <v>33578.1643799651</v>
       </c>
       <c r="V53">
-        <v>14301.6724762402</v>
+        <v>3544.41382819362</v>
       </c>
       <c r="W53">
         <v>-5921.52181903709</v>
@@ -5393,7 +5393,7 @@
         <v>18451.38264</v>
       </c>
       <c r="AC53">
-        <v>32753.0551162402</v>
+        <v>21995.7964681936</v>
       </c>
     </row>
     <row r="54">
@@ -5444,10 +5444,10 @@
         <v>2421.9096</v>
       </c>
       <c r="O54">
-        <v>247078.258998333</v>
+        <v>123539.129499167</v>
       </c>
       <c r="P54">
-        <v>21216.759734155</v>
+        <v>31817.7163334693</v>
       </c>
       <c r="Q54">
         <v>42418.6729327836</v>
@@ -5462,10 +5462,10 @@
         <v>12725.6018798351</v>
       </c>
       <c r="U54">
-        <v>22489.3199221385</v>
+        <v>33090.2765214528</v>
       </c>
       <c r="V54">
-        <v>11005.9915576965</v>
+        <v>405.034958382254</v>
       </c>
       <c r="W54">
         <v>-8923.36145294852</v>
@@ -5486,7 +5486,7 @@
         <v>30401.38264</v>
       </c>
       <c r="AC54">
-        <v>41407.3741976965</v>
+        <v>30806.4175983823</v>
       </c>
     </row>
     <row r="55">
@@ -5537,10 +5537,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O55">
-        <v>277963.041373125</v>
+        <v>138981.520686562</v>
       </c>
       <c r="P55">
-        <v>23868.8547009244</v>
+        <v>35794.930875153</v>
       </c>
       <c r="Q55">
         <v>47721.0070493815</v>
@@ -5555,10 +5555,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U55">
-        <v>25300.4849124059</v>
+        <v>37226.5610866344</v>
       </c>
       <c r="V55">
-        <v>-1868.1403975914</v>
+        <v>-13794.21657182</v>
       </c>
       <c r="W55">
         <v>-24288.6625345671</v>
@@ -5579,7 +5579,7 @@
         <v>6373.38264</v>
       </c>
       <c r="AC55">
-        <v>4505.2422424086</v>
+        <v>-7420.83393181996</v>
       </c>
     </row>
     <row r="56">
@@ -5630,10 +5630,10 @@
         <v>3212.3586</v>
       </c>
       <c r="O56">
-        <v>356795.577825</v>
+        <v>178397.7889125</v>
       </c>
       <c r="P56">
-        <v>30638.2523481077</v>
+        <v>45946.6588857124</v>
       </c>
       <c r="Q56">
         <v>61255.0654233172</v>
@@ -5648,10 +5648,10 @@
         <v>18376.5196269951</v>
       </c>
       <c r="U56">
-        <v>32475.9043108072</v>
+        <v>47784.3108484119</v>
       </c>
       <c r="V56">
-        <v>3714.60391618797</v>
+        <v>-11593.8026214168</v>
       </c>
       <c r="W56">
         <v>-25064.557196322</v>
@@ -5672,7 +5672,7 @@
         <v>16837.38264</v>
       </c>
       <c r="AC56">
-        <v>20551.986556188</v>
+        <v>5243.58001858322</v>
       </c>
     </row>
     <row r="57">
@@ -5816,10 +5816,10 @@
         <v>1832.0346</v>
       </c>
       <c r="O58">
-        <v>208130.75373125</v>
+        <v>104065.376865625</v>
       </c>
       <c r="P58">
-        <v>17872.3138697295</v>
+        <v>26802.2176833322</v>
       </c>
       <c r="Q58">
         <v>35732.121496935</v>
@@ -5834,10 +5834,10 @@
         <v>10719.6364490805</v>
       </c>
       <c r="U58">
-        <v>18944.2775146375</v>
+        <v>27874.1813282403</v>
       </c>
       <c r="V58">
-        <v>1934.82353444298</v>
+        <v>-6995.08027915979</v>
       </c>
       <c r="W58">
         <v>-14853.0204478545</v>
@@ -5858,7 +5858,7 @@
         <v>21461.38264</v>
       </c>
       <c r="AC58">
-        <v>23396.206174443</v>
+        <v>14466.3023608402</v>
       </c>
     </row>
     <row r="59">
@@ -5909,10 +5909,10 @@
         <v>3468.3858</v>
       </c>
       <c r="O59">
-        <v>334294.9558</v>
+        <v>167147.4779</v>
       </c>
       <c r="P59">
-        <v>28706.1103081369</v>
+        <v>43049.1218388657</v>
       </c>
       <c r="Q59">
         <v>57392.1333695944</v>
@@ -5927,10 +5927,10 @@
         <v>17217.6400108783</v>
       </c>
       <c r="U59">
-        <v>30427.8743092247</v>
+        <v>44770.8858399535</v>
       </c>
       <c r="V59">
-        <v>11278.6715016536</v>
+        <v>-3064.34002907517</v>
       </c>
       <c r="W59">
         <v>-15685.5875587161</v>
@@ -5951,7 +5951,7 @@
         <v>19149.38264</v>
       </c>
       <c r="AC59">
-        <v>30428.0541416536</v>
+        <v>16085.0426109248</v>
       </c>
     </row>
     <row r="60">
@@ -6002,16 +6002,16 @@
         <v>908.325</v>
       </c>
       <c r="O60">
-        <v>83573.73895</v>
+        <v>41786.869475</v>
       </c>
       <c r="P60">
-        <v>7176.52757703423</v>
+        <v>10762.2804597164</v>
       </c>
       <c r="Q60">
         <v>14348.0333423986</v>
       </c>
       <c r="R60">
-        <v>477.55784841783</v>
+        <v>477.557848417831</v>
       </c>
       <c r="S60">
         <v>430.441000271958</v>
@@ -6020,10 +6020,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U60">
-        <v>7606.96857730618</v>
+        <v>11192.7214599884</v>
       </c>
       <c r="V60">
-        <v>358.266425413399</v>
+        <v>-3227.48645726879</v>
       </c>
       <c r="W60">
         <v>-6382.79833967903</v>
@@ -6044,7 +6044,7 @@
         <v>23773.38264</v>
       </c>
       <c r="AC60">
-        <v>24131.6490654134</v>
+        <v>20545.8961827312</v>
       </c>
     </row>
     <row r="61">
@@ -6095,10 +6095,10 @@
         <v>1547.601</v>
       </c>
       <c r="O61">
-        <v>169558.25883125</v>
+        <v>84779.129415625</v>
       </c>
       <c r="P61">
-        <v>14560.0703726368</v>
+        <v>21835.0113173093</v>
       </c>
       <c r="Q61">
         <v>29109.9522619818</v>
@@ -6113,10 +6113,10 @@
         <v>8732.98567859454</v>
       </c>
       <c r="U61">
-        <v>15433.3689404962</v>
+        <v>22708.3098851687</v>
       </c>
       <c r="V61">
-        <v>-2807.93226190166</v>
+        <v>-10082.8732065742</v>
       </c>
       <c r="W61">
         <v>-16484.5155833873</v>
@@ -6137,7 +6137,7 @@
         <v>35569.38264</v>
       </c>
       <c r="AC61">
-        <v>32761.4503780983</v>
+        <v>25486.5094334258</v>
       </c>
     </row>
     <row r="62">
@@ -6281,10 +6281,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O63">
-        <v>406939.821195</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P63">
-        <v>34944.1688943282</v>
+        <v>52404.0271615423</v>
       </c>
       <c r="Q63">
         <v>69863.8854287563</v>
@@ -6299,10 +6299,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U63">
-        <v>37040.0854571909</v>
+        <v>54499.943724405</v>
       </c>
       <c r="V63">
-        <v>21901.126771436</v>
+        <v>4441.26850422195</v>
       </c>
       <c r="W63">
         <v>-10922.6732001294</v>
@@ -6323,7 +6323,7 @@
         <v>7153.38264</v>
       </c>
       <c r="AC63">
-        <v>29054.509411436</v>
+        <v>11594.6511442219</v>
       </c>
     </row>
     <row r="64">
@@ -6374,10 +6374,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O64">
-        <v>230470.6570275</v>
+        <v>115235.32851375</v>
       </c>
       <c r="P64">
-        <v>19790.654895129</v>
+        <v>29679.0580369872</v>
       </c>
       <c r="Q64">
         <v>39567.4611788454</v>
@@ -6392,10 +6392,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U64">
-        <v>20977.6787304944</v>
+        <v>30866.0818723526</v>
       </c>
       <c r="V64">
-        <v>6078.18202315926</v>
+        <v>-3810.22111869894</v>
       </c>
       <c r="W64">
         <v>-12511.6004251918</v>
@@ -6416,7 +6416,7 @@
         <v>35279.38264</v>
       </c>
       <c r="AC64">
-        <v>41357.5646631593</v>
+        <v>31469.1615213011</v>
       </c>
     </row>
     <row r="65">
@@ -6467,10 +6467,10 @@
         <v>2968.5678</v>
       </c>
       <c r="O65">
-        <v>411922.10178625</v>
+        <v>205961.050893125</v>
       </c>
       <c r="P65">
-        <v>35372.000346036</v>
+        <v>53045.6246504869</v>
       </c>
       <c r="Q65">
         <v>70719.2489549378</v>
@@ -6485,10 +6485,10 @@
         <v>21215.7746864813</v>
       </c>
       <c r="U65">
-        <v>37493.5778146841</v>
+        <v>55167.202119135</v>
       </c>
       <c r="V65">
-        <v>184.254671797193</v>
+        <v>-17489.3696326537</v>
       </c>
       <c r="W65">
         <v>-33041.4164684564</v>
@@ -6509,7 +6509,7 @@
         <v>17399.38264</v>
       </c>
       <c r="AC65">
-        <v>17583.6373117972</v>
+        <v>-89.9869926536958</v>
       </c>
     </row>
     <row r="66">
@@ -6560,10 +6560,10 @@
         <v>1767.9552</v>
       </c>
       <c r="O66">
-        <v>208130.75373125</v>
+        <v>104065.376865625</v>
       </c>
       <c r="P66">
-        <v>17872.3138697295</v>
+        <v>26802.2176833322</v>
       </c>
       <c r="Q66">
         <v>35732.121496935</v>
@@ -6578,10 +6578,10 @@
         <v>10719.6364490805</v>
       </c>
       <c r="U66">
-        <v>18944.2775146375</v>
+        <v>27874.1813282403</v>
       </c>
       <c r="V66">
-        <v>2918.83413444299</v>
+        <v>-6011.06967915978</v>
       </c>
       <c r="W66">
         <v>-13869.0098478545</v>
@@ -6602,7 +6602,7 @@
         <v>5575.38264</v>
       </c>
       <c r="AC66">
-        <v>8494.21677444299</v>
+        <v>-435.687039159784</v>
       </c>
     </row>
     <row r="67">
@@ -6653,10 +6653,10 @@
         <v>803.2992</v>
       </c>
       <c r="O67">
-        <v>112342.39139625</v>
+        <v>56171.195698125</v>
       </c>
       <c r="P67">
-        <v>9646.90918528255</v>
+        <v>14466.9885410419</v>
       </c>
       <c r="Q67">
         <v>19287.0678968012</v>
@@ -6671,10 +6671,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U67">
-        <v>10225.5212221866</v>
+        <v>15045.6005779459</v>
       </c>
       <c r="V67">
-        <v>2449.49834685378</v>
+        <v>-2370.58100890555</v>
       </c>
       <c r="W67">
         <v>-6612.04832776085</v>
@@ -6695,7 +6695,7 @@
         <v>37999.38264</v>
       </c>
       <c r="AC67">
-        <v>40448.8809868538</v>
+        <v>35628.8016310944</v>
       </c>
     </row>
     <row r="68">
@@ -6746,10 +6746,10 @@
         <v>2355.4872</v>
       </c>
       <c r="O68">
-        <v>267596.68336875</v>
+        <v>133798.341684375</v>
       </c>
       <c r="P68">
-        <v>22978.6892610807</v>
+        <v>34459.9941642843</v>
       </c>
       <c r="Q68">
         <v>45941.2990674879</v>
@@ -6764,10 +6764,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U68">
-        <v>24356.9282331054</v>
+        <v>35838.2331363089</v>
       </c>
       <c r="V68">
-        <v>2487.70868714098</v>
+        <v>-8993.59621606259</v>
       </c>
       <c r="W68">
         <v>-19096.6621472415</v>
@@ -6788,7 +6788,7 @@
         <v>5539.38264</v>
       </c>
       <c r="AC68">
-        <v>8027.09132714098</v>
+        <v>-3454.21357606259</v>
       </c>
     </row>
     <row r="69">
@@ -6839,10 +6839,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O69">
-        <v>334294.9558</v>
+        <v>167147.4779</v>
       </c>
       <c r="P69">
-        <v>28706.1103081369</v>
+        <v>43049.1218388657</v>
       </c>
       <c r="Q69">
         <v>57392.1333695944</v>
@@ -6857,10 +6857,10 @@
         <v>17217.6400108783</v>
       </c>
       <c r="U69">
-        <v>30427.8743092247</v>
+        <v>44770.8858399535</v>
       </c>
       <c r="V69">
-        <v>13365.7923016536</v>
+        <v>-977.21922907517</v>
       </c>
       <c r="W69">
         <v>-13598.4667587161</v>
@@ -6881,7 +6881,7 @@
         <v>23927.38264</v>
       </c>
       <c r="AC69">
-        <v>37293.1749416536</v>
+        <v>22950.1634109248</v>
       </c>
     </row>
     <row r="70">
@@ -7025,16 +7025,16 @@
         <v>1010.328</v>
       </c>
       <c r="O71">
-        <v>149789.855195</v>
+        <v>74894.9275975</v>
       </c>
       <c r="P71">
-        <v>12862.5455803767</v>
+        <v>19289.3180547225</v>
       </c>
       <c r="Q71">
         <v>25716.0905290683</v>
       </c>
       <c r="R71">
-        <v>855.930605241188</v>
+        <v>855.930605241189</v>
       </c>
       <c r="S71">
         <v>771.482715872048</v>
@@ -7043,10 +7043,10 @@
         <v>7714.82715872049</v>
       </c>
       <c r="U71">
-        <v>13634.0282962488</v>
+        <v>20060.8007705946</v>
       </c>
       <c r="V71">
-        <v>3510.5268624717</v>
+        <v>-2916.24561187407</v>
       </c>
       <c r="W71">
         <v>-8571.5353703478</v>
@@ -7067,7 +7067,7 @@
         <v>25795.38264</v>
       </c>
       <c r="AC71">
-        <v>29305.9095024717</v>
+        <v>22879.1370281259</v>
       </c>
     </row>
     <row r="72">
@@ -7118,16 +7118,16 @@
         <v>928.6002</v>
       </c>
       <c r="O72">
-        <v>83573.73895</v>
+        <v>41786.869475</v>
       </c>
       <c r="P72">
-        <v>7176.52757703423</v>
+        <v>10762.2804597164</v>
       </c>
       <c r="Q72">
         <v>14348.0333423986</v>
       </c>
       <c r="R72">
-        <v>477.55784841783</v>
+        <v>477.557848417831</v>
       </c>
       <c r="S72">
         <v>430.441000271958</v>
@@ -7136,10 +7136,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U72">
-        <v>7606.96857730618</v>
+        <v>11192.7214599884</v>
       </c>
       <c r="V72">
-        <v>6067.8616254134</v>
+        <v>2482.10874273121</v>
       </c>
       <c r="W72">
         <v>-673.203139679028</v>
@@ -7160,7 +7160,7 @@
         <v>-6828.61736</v>
       </c>
       <c r="AC72">
-        <v>-760.755734586601</v>
+        <v>-4346.50861726879</v>
       </c>
     </row>
     <row r="73">
@@ -7397,10 +7397,10 @@
         <v>3330.1092</v>
       </c>
       <c r="O75">
-        <v>306437.042816667</v>
+        <v>153218.521408333</v>
       </c>
       <c r="P75">
-        <v>26313.9344491255</v>
+        <v>39461.6950189602</v>
       </c>
       <c r="Q75">
         <v>52609.4555887949</v>
@@ -7415,10 +7415,10 @@
         <v>15782.8366766385</v>
       </c>
       <c r="U75">
-        <v>27892.2181167893</v>
+        <v>41039.9786866241</v>
       </c>
       <c r="V75">
-        <v>8880.39775984913</v>
+        <v>-4267.36280998559</v>
       </c>
       <c r="W75">
         <v>-15836.8397121564</v>
@@ -7439,7 +7439,7 @@
         <v>7597.38264</v>
       </c>
       <c r="AC75">
-        <v>16477.7803998491</v>
+        <v>3330.01983001441</v>
       </c>
     </row>
     <row r="76">
@@ -7490,10 +7490,10 @@
         <v>1734.2028</v>
       </c>
       <c r="O76">
-        <v>185308.69424875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P76">
-        <v>15912.5698006163</v>
+        <v>23863.287250102</v>
       </c>
       <c r="Q76">
         <v>31814.0046995877</v>
@@ -7508,10 +7508,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U76">
-        <v>16866.9899416039</v>
+        <v>24817.7073910896</v>
       </c>
       <c r="V76">
-        <v>7549.3142682724</v>
+        <v>-401.403181213311</v>
       </c>
       <c r="W76">
         <v>-7397.70048971138</v>
@@ -7532,7 +7532,7 @@
         <v>-4144.61736</v>
       </c>
       <c r="AC76">
-        <v>3404.6969082724</v>
+        <v>-4546.02054121331</v>
       </c>
     </row>
     <row r="77">
@@ -7583,10 +7583,10 @@
         <v>309.573</v>
       </c>
       <c r="O77">
-        <v>33911.65176625</v>
+        <v>16955.825883125</v>
       </c>
       <c r="P77">
-        <v>2912.01407452735</v>
+        <v>4367.00226346186</v>
       </c>
       <c r="Q77">
         <v>5821.99045239636</v>
@@ -7601,10 +7601,10 @@
         <v>1746.59713571891</v>
       </c>
       <c r="U77">
-        <v>3086.67378809924</v>
+        <v>4541.66197703375</v>
       </c>
       <c r="V77">
-        <v>845.696347619668</v>
+        <v>-609.291841314839</v>
       </c>
       <c r="W77">
         <v>-1889.62031667745</v>
@@ -7625,7 +7625,7 @@
         <v>18451.38264</v>
       </c>
       <c r="AC77">
-        <v>19297.0789876197</v>
+        <v>17842.0907986852</v>
       </c>
     </row>
     <row r="78">
@@ -7676,10 +7676,10 @@
         <v>1156.2342</v>
       </c>
       <c r="O78">
-        <v>123539.129499167</v>
+        <v>61769.5647495833</v>
       </c>
       <c r="P78">
-        <v>10608.3798670775</v>
+        <v>15908.8581667347</v>
       </c>
       <c r="Q78">
         <v>21209.3364663918</v>
@@ -7694,10 +7694,10 @@
         <v>6362.80093991754</v>
       </c>
       <c r="U78">
-        <v>11244.6599610693</v>
+        <v>16545.1382607264</v>
       </c>
       <c r="V78">
-        <v>-221.884821151731</v>
+        <v>-5522.36312080887</v>
       </c>
       <c r="W78">
         <v>-10186.5613264743</v>
@@ -7718,7 +7718,7 @@
         <v>10381.38264</v>
       </c>
       <c r="AC78">
-        <v>10159.4978188483</v>
+        <v>4859.01951919113</v>
       </c>
     </row>
     <row r="79">
@@ -7862,10 +7862,10 @@
         <v>3757.413</v>
       </c>
       <c r="O80">
-        <v>401502.170872292</v>
+        <v>200751.085436146</v>
       </c>
       <c r="P80">
-        <v>34477.2345680019</v>
+        <v>51703.7890418876</v>
       </c>
       <c r="Q80">
         <v>68930.3435157733</v>
@@ -7880,10 +7880,10 @@
         <v>20679.103054732</v>
       </c>
       <c r="U80">
-        <v>36545.1448734751</v>
+        <v>53771.6993473608</v>
       </c>
       <c r="V80">
-        <v>7817.04618125687</v>
+        <v>-9409.50829262883</v>
       </c>
       <c r="W80">
         <v>-24568.1524610413</v>
@@ -7904,7 +7904,7 @@
         <v>-6012.61736</v>
       </c>
       <c r="AC80">
-        <v>1804.42882125687</v>
+        <v>-15422.1256526288</v>
       </c>
     </row>
     <row r="81">
@@ -7955,10 +7955,10 @@
         <v>2023.2366</v>
       </c>
       <c r="O81">
-        <v>195005.390883333</v>
+        <v>97502.6954416667</v>
       </c>
       <c r="P81">
-        <v>16745.2310130799</v>
+        <v>25111.9877393383</v>
       </c>
       <c r="Q81">
         <v>33478.7444655968</v>
@@ -7973,10 +7973,10 @@
         <v>10043.623339679</v>
       </c>
       <c r="U81">
-        <v>17749.5933470478</v>
+        <v>26116.3500733062</v>
       </c>
       <c r="V81">
-        <v>-2617.22340736874</v>
+        <v>-10983.9801336272</v>
       </c>
       <c r="W81">
         <v>-18346.3745259177</v>
@@ -7997,7 +7997,7 @@
         <v>-3056.61736</v>
       </c>
       <c r="AC81">
-        <v>-5673.84076736874</v>
+        <v>-14040.5974936272</v>
       </c>
     </row>
     <row r="82">
@@ -8048,10 +8048,10 @@
         <v>261.7956</v>
       </c>
       <c r="O82">
-        <v>29732.96481875</v>
+        <v>14866.482409375</v>
       </c>
       <c r="P82">
-        <v>2553.18769567564</v>
+        <v>3828.88824047603</v>
       </c>
       <c r="Q82">
         <v>5104.58878527643</v>
@@ -8066,10 +8066,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U82">
-        <v>2706.32535923393</v>
+        <v>3982.02590403433</v>
       </c>
       <c r="V82">
-        <v>78.4968763489983</v>
+        <v>-1197.2036684514</v>
       </c>
       <c r="W82">
         <v>-2319.7665496935</v>
@@ -8090,7 +8090,7 @@
         <v>3925.38264</v>
       </c>
       <c r="AC82">
-        <v>4003.879516349</v>
+        <v>2728.1789715486</v>
       </c>
     </row>
     <row r="83">
@@ -8141,10 +8141,10 @@
         <v>3094.9512</v>
       </c>
       <c r="O83">
-        <v>339116.5176625</v>
+        <v>169558.25883125</v>
       </c>
       <c r="P83">
-        <v>29120.1407452735</v>
+        <v>43670.0226346186</v>
       </c>
       <c r="Q83">
         <v>58219.9045239636</v>
@@ -8159,10 +8159,10 @@
         <v>17465.9713571891</v>
       </c>
       <c r="U83">
-        <v>30866.7378809924</v>
+        <v>45416.6197703375</v>
       </c>
       <c r="V83">
-        <v>3762.14467619667</v>
+        <v>-10787.7372131484</v>
       </c>
       <c r="W83">
         <v>-23591.0219667745</v>
@@ -8183,7 +8183,7 @@
         <v>17453.38264</v>
       </c>
       <c r="AC83">
-        <v>21215.5273161967</v>
+        <v>6665.64542685161</v>
       </c>
     </row>
     <row r="84">
@@ -8234,10 +8234,10 @@
         <v>1734.2028</v>
       </c>
       <c r="O84">
-        <v>203469.9105975</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P84">
-        <v>17472.0844471641</v>
+        <v>26202.0135807711</v>
       </c>
       <c r="Q84">
         <v>34931.9427143782</v>
@@ -8252,10 +8252,10 @@
         <v>10479.5828143134</v>
       </c>
       <c r="U84">
-        <v>18520.0427285954</v>
+        <v>27249.9718622025</v>
       </c>
       <c r="V84">
-        <v>4204.06288571801</v>
+        <v>-4525.86624788903</v>
       </c>
       <c r="W84">
         <v>-12207.8371000647</v>
@@ -8276,7 +8276,7 @@
         <v>-2512.61736</v>
       </c>
       <c r="AC84">
-        <v>1691.44552571801</v>
+        <v>-7038.48360788903</v>
       </c>
     </row>
     <row r="85">
@@ -8327,10 +8327,10 @@
         <v>867.1938</v>
       </c>
       <c r="O85">
-        <v>101734.95529875</v>
+        <v>50867.477649375</v>
       </c>
       <c r="P85">
-        <v>8736.04222358205</v>
+        <v>13101.0067903856</v>
       </c>
       <c r="Q85">
         <v>17465.9713571891</v>
@@ -8345,10 +8345,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U85">
-        <v>9260.02136429772</v>
+        <v>13624.9859311012</v>
       </c>
       <c r="V85">
-        <v>131.788842859003</v>
+        <v>-4233.17572394451</v>
       </c>
       <c r="W85">
         <v>-8074.16115003236</v>
@@ -8369,7 +8369,7 @@
         <v>13699.38264</v>
       </c>
       <c r="AC85">
-        <v>13831.171482859</v>
+        <v>9466.20691605549</v>
       </c>
     </row>
     <row r="86">
@@ -8420,10 +8420,10 @@
         <v>3632.8512</v>
       </c>
       <c r="O86">
-        <v>406939.821195</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P86">
-        <v>34944.1688943282</v>
+        <v>52404.0271615423</v>
       </c>
       <c r="Q86">
         <v>69863.8854287563</v>
@@ -8438,10 +8438,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U86">
-        <v>37040.0854571909</v>
+        <v>54499.943724405</v>
       </c>
       <c r="V86">
-        <v>4064.89137143601</v>
+        <v>-13394.9668957781</v>
       </c>
       <c r="W86">
         <v>-28758.9086001294</v>
@@ -8462,7 +8462,7 @@
         <v>29839.38264</v>
       </c>
       <c r="AC86">
-        <v>33904.274011436</v>
+        <v>16444.4157442219</v>
       </c>
     </row>
     <row r="87">
@@ -8513,10 +8513,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O87">
-        <v>307294.20937</v>
+        <v>153647.104685</v>
       </c>
       <c r="P87">
-        <v>26387.539860172</v>
+        <v>39572.0773826496</v>
       </c>
       <c r="Q87">
         <v>52756.6149051272</v>
@@ -8531,10 +8531,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U87">
-        <v>27970.2383073258</v>
+        <v>41154.7758298034</v>
       </c>
       <c r="V87">
-        <v>14790.3089642123</v>
+        <v>1605.77144173474</v>
       </c>
       <c r="W87">
         <v>-9996.06763358905</v>
@@ -8555,7 +8555,7 @@
         <v>8767.38264</v>
       </c>
       <c r="AC87">
-        <v>23557.6916042123</v>
+        <v>10373.1540817347</v>
       </c>
     </row>
     <row r="88">
@@ -8606,10 +8606,10 @@
         <v>1767.9552</v>
       </c>
       <c r="O88">
-        <v>208130.75373125</v>
+        <v>104065.376865625</v>
       </c>
       <c r="P88">
-        <v>17872.3138697295</v>
+        <v>26802.2176833322</v>
       </c>
       <c r="Q88">
         <v>35732.121496935</v>
@@ -8624,10 +8624,10 @@
         <v>10719.6364490805</v>
       </c>
       <c r="U88">
-        <v>18944.2775146375</v>
+        <v>27874.1813282403</v>
       </c>
       <c r="V88">
-        <v>240.114134442985</v>
+        <v>-8689.78967915979</v>
       </c>
       <c r="W88">
         <v>-16547.7298478545</v>
@@ -8648,7 +8648,7 @@
         <v>6409.38264</v>
       </c>
       <c r="AC88">
-        <v>6649.49677444298</v>
+        <v>-2280.40703915979</v>
       </c>
     </row>
     <row r="89">
@@ -8699,10 +8699,10 @@
         <v>2617.2102</v>
       </c>
       <c r="O89">
-        <v>374474.6379875</v>
+        <v>187237.31899375</v>
       </c>
       <c r="P89">
-        <v>32156.3639509418</v>
+        <v>48223.2951368063</v>
       </c>
       <c r="Q89">
         <v>64290.2263226707</v>
@@ -8717,10 +8717,10 @@
         <v>19287.0678968012</v>
       </c>
       <c r="U89">
-        <v>34085.070740622</v>
+        <v>50152.0019264864</v>
       </c>
       <c r="V89">
-        <v>5663.82235617926</v>
+        <v>-10403.1088296852</v>
       </c>
       <c r="W89">
         <v>-24541.3332258695</v>
@@ -8741,7 +8741,7 @@
         <v>28243.38264</v>
       </c>
       <c r="AC89">
-        <v>33907.2049961793</v>
+        <v>17840.2738103148</v>
       </c>
     </row>
     <row r="90">
@@ -8792,10 +8792,10 @@
         <v>2093.7576</v>
       </c>
       <c r="O90">
-        <v>299579.71039</v>
+        <v>149789.855195</v>
       </c>
       <c r="P90">
-        <v>25725.0911607535</v>
+        <v>38578.636109445</v>
       </c>
       <c r="Q90">
         <v>51432.1810581366</v>
@@ -8810,10 +8810,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U90">
-        <v>27268.0565924976</v>
+        <v>40121.6015411891</v>
       </c>
       <c r="V90">
-        <v>2944.79532494341</v>
+        <v>-9908.74962374814</v>
       </c>
       <c r="W90">
         <v>-21219.3291406956</v>
@@ -8834,7 +8834,7 @@
         <v>1549.38264</v>
       </c>
       <c r="AC90">
-        <v>4494.17796494341</v>
+        <v>-8359.36698374814</v>
       </c>
     </row>
     <row r="91">
@@ -8978,10 +8978,10 @@
         <v>2525.6748</v>
       </c>
       <c r="O92">
-        <v>374474.6379875</v>
+        <v>187237.31899375</v>
       </c>
       <c r="P92">
-        <v>32156.3639509418</v>
+        <v>48223.2951368063</v>
       </c>
       <c r="Q92">
         <v>64290.2263226707</v>
@@ -8996,10 +8996,10 @@
         <v>19287.0678968012</v>
       </c>
       <c r="U92">
-        <v>34085.070740622</v>
+        <v>50152.0019264864</v>
       </c>
       <c r="V92">
-        <v>-6532.15804382074</v>
+        <v>-22599.0892296852</v>
       </c>
       <c r="W92">
         <v>-36737.3136258695</v>
@@ -9020,7 +9020,7 @@
         <v>8767.38264</v>
       </c>
       <c r="AC92">
-        <v>2235.22459617926</v>
+        <v>-13831.7065896852</v>
       </c>
     </row>
     <row r="93">
@@ -9071,10 +9071,10 @@
         <v>4048.0572</v>
       </c>
       <c r="O93">
-        <v>561711.95698125</v>
+        <v>280855.978490625</v>
       </c>
       <c r="P93">
-        <v>48234.5459264127</v>
+        <v>72334.9427052094</v>
       </c>
       <c r="Q93">
         <v>96435.3394840061</v>
@@ -9089,10 +9089,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U93">
-        <v>51127.6061109329</v>
+        <v>75228.0028897296</v>
       </c>
       <c r="V93">
-        <v>18651.5729342689</v>
+        <v>-5448.82384452778</v>
       </c>
       <c r="W93">
         <v>-26656.1604388043</v>
@@ -9113,7 +9113,7 @@
         <v>30709.38264</v>
       </c>
       <c r="AC93">
-        <v>49360.9555742689</v>
+        <v>25260.5587954722</v>
       </c>
     </row>
     <row r="94">
@@ -9164,10 +9164,10 @@
         <v>1882.0164</v>
       </c>
       <c r="O94">
-        <v>203469.9105975</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P94">
-        <v>17472.0844471641</v>
+        <v>26202.0135807711</v>
       </c>
       <c r="Q94">
         <v>34931.9427143782</v>
@@ -9182,10 +9182,10 @@
         <v>10479.5828143134</v>
       </c>
       <c r="U94">
-        <v>18520.0427285954</v>
+        <v>27249.9718622025</v>
       </c>
       <c r="V94">
-        <v>2396.17648571801</v>
+        <v>-6333.75264788903</v>
       </c>
       <c r="W94">
         <v>-14015.7235000647</v>
@@ -9206,7 +9206,7 @@
         <v>13899.38264</v>
       </c>
       <c r="AC94">
-        <v>16295.559125718</v>
+        <v>7565.62999211096</v>
       </c>
     </row>
     <row r="95">
@@ -9257,10 +9257,10 @@
         <v>2421.9096</v>
       </c>
       <c r="O95">
-        <v>222863.303866667</v>
+        <v>111431.651933333</v>
       </c>
       <c r="P95">
-        <v>19137.4068720913</v>
+        <v>28699.4145592438</v>
       </c>
       <c r="Q95">
         <v>38261.4222463963</v>
@@ -9275,10 +9275,10 @@
         <v>11478.4266739189</v>
       </c>
       <c r="U95">
-        <v>20285.2495394832</v>
+        <v>29847.2572266357</v>
       </c>
       <c r="V95">
-        <v>8293.32673443573</v>
+        <v>-1268.68095271679</v>
       </c>
       <c r="W95">
         <v>-9682.84597247741</v>
@@ -9299,7 +9299,7 @@
         <v>869.38264</v>
       </c>
       <c r="AC95">
-        <v>9162.70937443573</v>
+        <v>-399.298312716786</v>
       </c>
     </row>
     <row r="96">
@@ -9350,10 +9350,10 @@
         <v>1445.268</v>
       </c>
       <c r="O96">
-        <v>139289.564916667</v>
+        <v>69644.7824583333</v>
       </c>
       <c r="P96">
-        <v>11960.879295057</v>
+        <v>17937.1340995274</v>
       </c>
       <c r="Q96">
         <v>23913.3889039977</v>
@@ -9368,10 +9368,10 @@
         <v>7174.01667119931</v>
       </c>
       <c r="U96">
-        <v>12678.280962177</v>
+        <v>18654.5357666473</v>
       </c>
       <c r="V96">
-        <v>1415.50370902233</v>
+        <v>-4560.75109544799</v>
       </c>
       <c r="W96">
         <v>-9819.60423279838</v>
@@ -9392,7 +9392,7 @@
         <v>8821.38264</v>
       </c>
       <c r="AC96">
-        <v>10236.8863490223</v>
+        <v>4260.63154455201</v>
       </c>
     </row>
     <row r="97">
@@ -9443,10 +9443,10 @@
         <v>267.7818</v>
       </c>
       <c r="O97">
-        <v>29732.96481875</v>
+        <v>14866.482409375</v>
       </c>
       <c r="P97">
-        <v>2553.18769567564</v>
+        <v>3828.88824047603</v>
       </c>
       <c r="Q97">
         <v>5104.58878527643</v>
@@ -9461,10 +9461,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U97">
-        <v>2706.32535923393</v>
+        <v>3982.02590403433</v>
       </c>
       <c r="V97">
-        <v>310.023076348998</v>
+        <v>-965.677468451398</v>
       </c>
       <c r="W97">
         <v>-2088.2403496935</v>
@@ -9485,7 +9485,7 @@
         <v>3553.38264</v>
       </c>
       <c r="AC97">
-        <v>3863.40571634899</v>
+        <v>2587.7051715486</v>
       </c>
     </row>
     <row r="98">
@@ -9536,10 +9536,10 @@
         <v>4391.3034</v>
       </c>
       <c r="O98">
-        <v>390010.781766667</v>
+        <v>195005.390883333</v>
       </c>
       <c r="P98">
-        <v>33490.4620261597</v>
+        <v>50223.9754786766</v>
       </c>
       <c r="Q98">
         <v>66957.4889311935</v>
@@ -9554,10 +9554,10 @@
         <v>20087.2466793581</v>
       </c>
       <c r="U98">
-        <v>35499.1866940955</v>
+        <v>52232.7001466124</v>
       </c>
       <c r="V98">
-        <v>12266.5783852625</v>
+        <v>-4466.93506725438</v>
       </c>
       <c r="W98">
         <v>-19191.7238518355</v>
@@ -9578,7 +9578,7 @@
         <v>1549.38264</v>
       </c>
       <c r="AC98">
-        <v>13815.9610252625</v>
+        <v>-2917.55242725438</v>
       </c>
     </row>
     <row r="99">
@@ -9629,10 +9629,10 @@
         <v>3480.0546</v>
       </c>
       <c r="O99">
-        <v>332902.060150833</v>
+        <v>166451.030075417</v>
       </c>
       <c r="P99">
-        <v>28586.5015151863</v>
+        <v>42869.7504978704</v>
       </c>
       <c r="Q99">
         <v>57152.9994805545</v>
@@ -9647,10 +9647,10 @@
         <v>17145.8998441663</v>
       </c>
       <c r="U99">
-        <v>30301.091499603</v>
+        <v>44584.340482287</v>
       </c>
       <c r="V99">
-        <v>-4402.32705543662</v>
+        <v>-18685.5760381207</v>
       </c>
       <c r="W99">
         <v>-31254.2350363881</v>
@@ -9671,7 +9671,7 @@
         <v>20899.38264</v>
       </c>
       <c r="AC99">
-        <v>16497.0555845634</v>
+        <v>2213.8066018793</v>
       </c>
     </row>
     <row r="100">
@@ -9722,10 +9722,10 @@
         <v>3030.819</v>
       </c>
       <c r="O100">
-        <v>307294.20937</v>
+        <v>153647.104685</v>
       </c>
       <c r="P100">
-        <v>26387.539860172</v>
+        <v>39572.0773826496</v>
       </c>
       <c r="Q100">
         <v>52756.6149051272</v>
@@ -9740,10 +9740,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U100">
-        <v>27970.2383073258</v>
+        <v>41154.7758298034</v>
       </c>
       <c r="V100">
-        <v>9256.16516421234</v>
+        <v>-3928.37235826526</v>
       </c>
       <c r="W100">
         <v>-15530.211433589</v>
@@ -9764,7 +9764,7 @@
         <v>26103.38264</v>
       </c>
       <c r="AC100">
-        <v>35359.5478042123</v>
+        <v>22175.0102817347</v>
       </c>
     </row>
     <row r="101">
@@ -9815,10 +9815,10 @@
         <v>867.1938</v>
       </c>
       <c r="O101">
-        <v>101734.95529875</v>
+        <v>50867.477649375</v>
       </c>
       <c r="P101">
-        <v>8736.04222358205</v>
+        <v>13101.0067903856</v>
       </c>
       <c r="Q101">
         <v>17465.9713571891</v>
@@ -9833,10 +9833,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U101">
-        <v>9260.02136429772</v>
+        <v>13624.9859311012</v>
       </c>
       <c r="V101">
-        <v>2759.648842859</v>
+        <v>-1605.31572394452</v>
       </c>
       <c r="W101">
         <v>-5446.30115003236</v>
@@ -9857,7 +9857,7 @@
         <v>19729.38264</v>
       </c>
       <c r="AC101">
-        <v>22489.031482859</v>
+        <v>18124.0669160555</v>
       </c>
     </row>
   </sheetData>

--- a/Results/TAV Profit Sample.xlsx
+++ b/Results/TAV Profit Sample.xlsx
@@ -608,10 +608,10 @@
         <v>2020.5306</v>
       </c>
       <c r="O2">
-        <v>118931.859275</v>
+        <v>237863.71855</v>
       </c>
       <c r="P2">
-        <v>30631.1059238083</v>
+        <v>20629.6851168162</v>
       </c>
       <c r="Q2">
         <v>40836.7102822114</v>
@@ -626,10 +626,10 @@
         <v>12251.0130846634</v>
       </c>
       <c r="U2">
-        <v>31856.2072322746</v>
+        <v>21854.7864252825</v>
       </c>
       <c r="V2">
-        <v>-11461.8435476112</v>
+        <v>-1460.42274061907</v>
       </c>
       <c r="W2">
         <v>-20442.346597548</v>
@@ -650,7 +650,7 @@
         <v>19575.38264</v>
       </c>
       <c r="AC2">
-        <v>8113.53909238882</v>
+        <v>18114.9598993809</v>
       </c>
     </row>
     <row r="3">
@@ -701,10 +701,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O3">
-        <v>203469.9105975</v>
+        <v>406939.821195</v>
       </c>
       <c r="P3">
-        <v>52404.0271615423</v>
+        <v>35293.488321472</v>
       </c>
       <c r="Q3">
         <v>69863.8854287563</v>
@@ -719,10 +719,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U3">
-        <v>54499.943724405</v>
+        <v>37389.4048843347</v>
       </c>
       <c r="V3">
-        <v>-21222.2764957781</v>
+        <v>-4111.73765570777</v>
       </c>
       <c r="W3">
         <v>-36586.2182001294</v>
@@ -743,7 +743,7 @@
         <v>3979.38264</v>
       </c>
       <c r="AC3">
-        <v>-17242.8938557781</v>
+        <v>-132.355015707766</v>
       </c>
     </row>
     <row r="4">
@@ -794,10 +794,10 @@
         <v>3094.9512</v>
       </c>
       <c r="O4">
-        <v>139289.564916667</v>
+        <v>278579.129833333</v>
       </c>
       <c r="P4">
-        <v>35874.2681990547</v>
+        <v>24160.8924791541</v>
       </c>
       <c r="Q4">
         <v>47826.7778079954</v>
@@ -812,10 +812,10 @@
         <v>14348.0333423986</v>
       </c>
       <c r="U4">
-        <v>37309.0715332946</v>
+        <v>25595.6958133939</v>
       </c>
       <c r="V4">
-        <v>-12832.106990896</v>
+        <v>-1118.73127099531</v>
       </c>
       <c r="W4">
         <v>-23349.8132655968</v>
@@ -836,7 +836,7 @@
         <v>-1968.61736</v>
       </c>
       <c r="AC4">
-        <v>-14800.724350896</v>
+        <v>-3087.34863099531</v>
       </c>
     </row>
     <row r="5">
@@ -887,10 +887,10 @@
         <v>928.6002</v>
       </c>
       <c r="O5">
-        <v>50867.477649375</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P5">
-        <v>13101.0067903856</v>
+        <v>8823.372080368</v>
       </c>
       <c r="Q5">
         <v>17465.9713571891</v>
@@ -905,10 +905,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U5">
-        <v>13624.9859311012</v>
+        <v>9347.35122108367</v>
       </c>
       <c r="V5">
-        <v>281.740676055486</v>
+        <v>4559.37538607306</v>
       </c>
       <c r="W5">
         <v>-3559.24475003236</v>
@@ -929,7 +929,7 @@
         <v>7751.38264</v>
       </c>
       <c r="AC5">
-        <v>8033.12331605549</v>
+        <v>12310.7580260731</v>
       </c>
     </row>
     <row r="6">
@@ -1073,10 +1073,10 @@
         <v>3535.9632</v>
       </c>
       <c r="O7">
-        <v>179254.955465833</v>
+        <v>358509.910931667</v>
       </c>
       <c r="P7">
-        <v>46167.4236130912</v>
+        <v>31093.2100904806</v>
       </c>
       <c r="Q7">
         <v>61549.3840559817</v>
@@ -1091,10 +1091,10 @@
         <v>18464.8152167945</v>
       </c>
       <c r="U7">
-        <v>48013.9051347707</v>
+        <v>32939.69161216</v>
       </c>
       <c r="V7">
-        <v>-9940.56671797615</v>
+        <v>5133.64680463449</v>
       </c>
       <c r="W7">
         <v>-23476.0456391872</v>
@@ -1115,7 +1115,7 @@
         <v>-6828.61736</v>
       </c>
       <c r="AC7">
-        <v>-16769.1840779762</v>
+        <v>-1694.97055536551</v>
       </c>
     </row>
     <row r="8">
@@ -1166,10 +1166,10 @@
         <v>3450.3216</v>
       </c>
       <c r="O8">
-        <v>153218.521408333</v>
+        <v>306437.042816667</v>
       </c>
       <c r="P8">
-        <v>39461.6950189602</v>
+        <v>26576.9817270695</v>
       </c>
       <c r="Q8">
         <v>52609.4555887949</v>
@@ -1184,10 +1184,10 @@
         <v>15782.8366766385</v>
       </c>
       <c r="U8">
-        <v>41039.9786866241</v>
+        <v>28155.2653947333</v>
       </c>
       <c r="V8">
-        <v>4331.97959001442</v>
+        <v>17216.6928819052</v>
       </c>
       <c r="W8">
         <v>-7237.49731215644</v>
@@ -1208,7 +1208,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC8">
-        <v>-6268.63776998558</v>
+        <v>6616.07552190516</v>
       </c>
     </row>
     <row r="9">
@@ -1259,10 +1259,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O9">
-        <v>125360.608425</v>
+        <v>250721.21685</v>
       </c>
       <c r="P9">
-        <v>32286.8413791493</v>
+        <v>21744.8032312387</v>
       </c>
       <c r="Q9">
         <v>43044.1000271958</v>
@@ -1277,10 +1277,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U9">
-        <v>33578.1643799651</v>
+        <v>23036.1262320545</v>
       </c>
       <c r="V9">
-        <v>-9287.39617180638</v>
+        <v>1254.64197610422</v>
       </c>
       <c r="W9">
         <v>-18753.3318190371</v>
@@ -1301,7 +1301,7 @@
         <v>13899.38264</v>
       </c>
       <c r="AC9">
-        <v>4611.98646819361</v>
+        <v>15154.0246161042</v>
       </c>
     </row>
     <row r="10">
@@ -1352,10 +1352,10 @@
         <v>3027.3804</v>
       </c>
       <c r="O10">
-        <v>169558.25883125</v>
+        <v>339116.5176625</v>
       </c>
       <c r="P10">
-        <v>43670.0226346186</v>
+        <v>29411.2402678933</v>
       </c>
       <c r="Q10">
         <v>58219.9045239636</v>
@@ -1370,10 +1370,10 @@
         <v>17465.9713571891</v>
       </c>
       <c r="U10">
-        <v>45416.6197703375</v>
+        <v>31157.8374036122</v>
       </c>
       <c r="V10">
-        <v>-4282.03801314839</v>
+        <v>9976.74435357685</v>
       </c>
       <c r="W10">
         <v>-17085.3227667745</v>
@@ -1394,7 +1394,7 @@
         <v>23773.38264</v>
       </c>
       <c r="AC10">
-        <v>19491.3446268516</v>
+        <v>33750.1269935769</v>
       </c>
     </row>
     <row r="11">
@@ -1445,10 +1445,10 @@
         <v>4015.4532</v>
       </c>
       <c r="O11">
-        <v>222997.236140625</v>
+        <v>445994.47228125</v>
       </c>
       <c r="P11">
-        <v>57433.3236071405</v>
+        <v>38680.6595940303</v>
       </c>
       <c r="Q11">
         <v>76568.8317791465</v>
@@ -1463,10 +1463,10 @@
         <v>22970.6495337439</v>
       </c>
       <c r="U11">
-        <v>59730.3885605149</v>
+        <v>40977.7245474047</v>
       </c>
       <c r="V11">
-        <v>-5366.19582677096</v>
+        <v>13386.4681863392</v>
       </c>
       <c r="W11">
         <v>-22204.6390454025</v>
@@ -1487,7 +1487,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC11">
-        <v>-15966.813186771</v>
+        <v>2785.85082633924</v>
       </c>
     </row>
     <row r="12">
@@ -1538,10 +1538,10 @@
         <v>2944.656</v>
       </c>
       <c r="O12">
-        <v>163531.306503125</v>
+        <v>327062.61300625</v>
       </c>
       <c r="P12">
-        <v>42117.7706452364</v>
+        <v>28365.8170356222</v>
       </c>
       <c r="Q12">
         <v>56150.4766380407</v>
@@ -1556,10 +1556,10 @@
         <v>16845.1429914122</v>
       </c>
       <c r="U12">
-        <v>43802.2849443776</v>
+        <v>30050.3313347634</v>
       </c>
       <c r="V12">
-        <v>-6166.08595296538</v>
+        <v>7585.86765664877</v>
       </c>
       <c r="W12">
         <v>-18514.2776466285</v>
@@ -1580,7 +1580,7 @@
         <v>10979.38264</v>
       </c>
       <c r="AC12">
-        <v>4813.29668703462</v>
+        <v>18565.2502966488</v>
       </c>
     </row>
     <row r="13">
@@ -1631,10 +1631,10 @@
         <v>1856.9892</v>
       </c>
       <c r="O13">
-        <v>92654.347124375</v>
+        <v>185308.69424875</v>
       </c>
       <c r="P13">
-        <v>23863.287250102</v>
+        <v>16071.6398241142</v>
       </c>
       <c r="Q13">
         <v>31814.0046995877</v>
@@ -1649,10 +1649,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U13">
-        <v>24817.7073910896</v>
+        <v>17026.0599651018</v>
       </c>
       <c r="V13">
-        <v>-3568.84678121331</v>
+        <v>4222.80064477446</v>
       </c>
       <c r="W13">
         <v>-10565.1440897114</v>
@@ -1673,7 +1673,7 @@
         <v>1531.38264</v>
       </c>
       <c r="AC13">
-        <v>-2037.46414121331</v>
+        <v>5754.18328477446</v>
       </c>
     </row>
     <row r="14">
@@ -1724,10 +1724,10 @@
         <v>3402.3858</v>
       </c>
       <c r="O14">
-        <v>243408.514691875</v>
+        <v>486817.02938375</v>
       </c>
       <c r="P14">
-        <v>62690.2836778482</v>
+        <v>42221.1596073217</v>
       </c>
       <c r="Q14">
         <v>83577.2942194719</v>
@@ -1742,10 +1742,10 @@
         <v>25073.1882658416</v>
       </c>
       <c r="U14">
-        <v>65197.6025044323</v>
+        <v>44728.4784339059</v>
       </c>
       <c r="V14">
-        <v>-13523.9434385907</v>
+        <v>6945.18063193568</v>
       </c>
       <c r="W14">
         <v>-31903.6351536303</v>
@@ -1766,7 +1766,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC14">
-        <v>-24124.5607985907</v>
+        <v>-3655.43672806432</v>
       </c>
     </row>
     <row r="15">
@@ -1817,10 +1817,10 @@
         <v>1882.0164</v>
       </c>
       <c r="O15">
-        <v>92654.347124375</v>
+        <v>185308.69424875</v>
       </c>
       <c r="P15">
-        <v>23863.287250102</v>
+        <v>16071.6398241142</v>
       </c>
       <c r="Q15">
         <v>31814.0046995877</v>
@@ -1835,10 +1835,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U15">
-        <v>24817.7073910896</v>
+        <v>17026.0599651018</v>
       </c>
       <c r="V15">
-        <v>-7688.40958121331</v>
+        <v>103.237844774463</v>
       </c>
       <c r="W15">
         <v>-14684.7068897114</v>
@@ -1859,7 +1859,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC15">
-        <v>-18289.0269412133</v>
+        <v>-10497.3795152255</v>
       </c>
     </row>
     <row r="16">
@@ -2003,10 +2003,10 @@
         <v>2778.2502</v>
       </c>
       <c r="O17">
-        <v>205961.050893125</v>
+        <v>411922.10178625</v>
       </c>
       <c r="P17">
-        <v>53045.6246504869</v>
+        <v>35725.5965908107</v>
       </c>
       <c r="Q17">
         <v>70719.2489549378</v>
@@ -2021,10 +2021,10 @@
         <v>21215.7746864813</v>
       </c>
       <c r="U17">
-        <v>55167.202119135</v>
+        <v>37847.1740594588</v>
       </c>
       <c r="V17">
-        <v>-20649.5022326537</v>
+        <v>-3329.47417297749</v>
       </c>
       <c r="W17">
         <v>-36201.5490684564</v>
@@ -2045,7 +2045,7 @@
         <v>-6556.61736</v>
       </c>
       <c r="AC17">
-        <v>-27206.1195926537</v>
+        <v>-9886.09153297749</v>
       </c>
     </row>
     <row r="18">
@@ -2096,10 +2096,10 @@
         <v>1070.85</v>
       </c>
       <c r="O18">
-        <v>51215.7015616667</v>
+        <v>102431.403123333</v>
       </c>
       <c r="P18">
-        <v>13190.6924608832</v>
+        <v>8883.77431156588</v>
       </c>
       <c r="Q18">
         <v>17585.5383017091</v>
@@ -2114,10 +2114,10 @@
         <v>5275.66149051272</v>
       </c>
       <c r="U18">
-        <v>13718.2586099345</v>
+        <v>9411.34046061715</v>
       </c>
       <c r="V18">
-        <v>740.752880578249</v>
+        <v>5047.67102989557</v>
       </c>
       <c r="W18">
         <v>-3126.52681119635</v>
@@ -2138,7 +2138,7 @@
         <v>-8306.61736</v>
       </c>
       <c r="AC18">
-        <v>-7565.86447942175</v>
+        <v>-3258.94633010443</v>
       </c>
     </row>
     <row r="19">
@@ -2189,10 +2189,10 @@
         <v>1606.1562</v>
       </c>
       <c r="O19">
-        <v>76823.5523425</v>
+        <v>153647.104685</v>
       </c>
       <c r="P19">
-        <v>19786.0386913248</v>
+        <v>13325.6614673488</v>
       </c>
       <c r="Q19">
         <v>26378.3074525636</v>
@@ -2207,10 +2207,10 @@
         <v>7913.49223576908</v>
       </c>
       <c r="U19">
-        <v>20577.3879149017</v>
+        <v>14117.0106909257</v>
       </c>
       <c r="V19">
-        <v>-2540.24447913263</v>
+        <v>3920.13274484335</v>
       </c>
       <c r="W19">
         <v>-8341.16401679452</v>
@@ -2231,7 +2231,7 @@
         <v>869.38264</v>
       </c>
       <c r="AC19">
-        <v>-1670.86183913263</v>
+        <v>4789.51538484335</v>
       </c>
     </row>
     <row r="20">
@@ -2282,10 +2282,10 @@
         <v>1832.0346</v>
       </c>
       <c r="O20">
-        <v>89627.4777329167</v>
+        <v>179254.955465833</v>
       </c>
       <c r="P20">
-        <v>23083.7118065456</v>
+        <v>15546.6050452403</v>
       </c>
       <c r="Q20">
         <v>30774.6920279909</v>
@@ -2300,10 +2300,10 @@
         <v>9232.40760839726</v>
       </c>
       <c r="U20">
-        <v>24006.9525673853</v>
+        <v>16469.84580608</v>
       </c>
       <c r="V20">
-        <v>-451.365358988074</v>
+        <v>7085.74140231725</v>
       </c>
       <c r="W20">
         <v>-7219.10481959361</v>
@@ -2324,7 +2324,7 @@
         <v>17689.38264</v>
       </c>
       <c r="AC20">
-        <v>17238.0172810119</v>
+        <v>24775.1240423172</v>
       </c>
     </row>
     <row r="21">
@@ -2468,10 +2468,10 @@
         <v>252.6348</v>
       </c>
       <c r="O22">
-        <v>14866.482409375</v>
+        <v>29732.96481875</v>
       </c>
       <c r="P22">
-        <v>3828.88824047603</v>
+        <v>2578.71063960202</v>
       </c>
       <c r="Q22">
         <v>5104.58878527643</v>
@@ -2486,10 +2486,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U22">
-        <v>3982.02590403433</v>
+        <v>2731.84830316031</v>
       </c>
       <c r="V22">
-        <v>98.6655315486018</v>
+        <v>1348.84313242262</v>
       </c>
       <c r="W22">
         <v>-1023.8973496935</v>
@@ -2510,7 +2510,7 @@
         <v>10399.38264</v>
       </c>
       <c r="AC22">
-        <v>10498.0481715486</v>
+        <v>11748.2257724226</v>
       </c>
     </row>
     <row r="23">
@@ -2561,10 +2561,10 @@
         <v>1734.2028</v>
       </c>
       <c r="O23">
-        <v>101734.95529875</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P23">
-        <v>26202.0135807711</v>
+        <v>17646.744160736</v>
       </c>
       <c r="Q23">
         <v>34931.9427143782</v>
@@ -2579,10 +2579,10 @@
         <v>10479.5828143134</v>
       </c>
       <c r="U23">
-        <v>27249.9718622025</v>
+        <v>18694.7024421673</v>
       </c>
       <c r="V23">
-        <v>-5839.65624788903</v>
+        <v>2715.61317214612</v>
       </c>
       <c r="W23">
         <v>-13521.6271000647</v>
@@ -2603,7 +2603,7 @@
         <v>-10600.61736</v>
       </c>
       <c r="AC23">
-        <v>-16440.273607889</v>
+        <v>-7885.00418785388</v>
       </c>
     </row>
     <row r="24">
@@ -2840,10 +2840,10 @@
         <v>757.8582</v>
       </c>
       <c r="O26">
-        <v>38411.77617125</v>
+        <v>76823.5523425</v>
       </c>
       <c r="P26">
-        <v>9893.0193456624</v>
+        <v>6662.83073367441</v>
       </c>
       <c r="Q26">
         <v>13189.1537262818</v>
@@ -2858,10 +2858,10 @@
         <v>3956.74611788454</v>
       </c>
       <c r="U26">
-        <v>10288.6939574509</v>
+        <v>7058.50534546286</v>
       </c>
       <c r="V26">
-        <v>-3851.68463956632</v>
+        <v>-621.496027578323</v>
       </c>
       <c r="W26">
         <v>-6752.14440839726</v>
@@ -2882,7 +2882,7 @@
         <v>19221.38264</v>
       </c>
       <c r="AC26">
-        <v>15369.6980004337</v>
+        <v>18599.8866124217</v>
       </c>
     </row>
     <row r="27">
@@ -2933,10 +2933,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O27">
-        <v>133798.341684375</v>
+        <v>267596.68336875</v>
       </c>
       <c r="P27">
-        <v>34459.9941642843</v>
+        <v>23208.3957564182</v>
       </c>
       <c r="Q27">
         <v>45941.2990674879</v>
@@ -2951,10 +2951,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U27">
-        <v>35838.2331363089</v>
+        <v>24586.6347284428</v>
       </c>
       <c r="V27">
-        <v>-10520.6110160626</v>
+        <v>730.987391803541</v>
       </c>
       <c r="W27">
         <v>-20623.6769472415</v>
@@ -2975,7 +2975,7 @@
         <v>32559.38264</v>
       </c>
       <c r="AC27">
-        <v>22038.7716239374</v>
+        <v>33290.3700318035</v>
       </c>
     </row>
     <row r="28">
@@ -3026,10 +3026,10 @@
         <v>4541.0442</v>
       </c>
       <c r="O28">
-        <v>231635.867810937</v>
+        <v>463271.735621875</v>
       </c>
       <c r="P28">
-        <v>59658.218125255</v>
+        <v>40179.0995602855</v>
       </c>
       <c r="Q28">
         <v>79535.0117489692</v>
@@ -3044,10 +3044,10 @@
         <v>23860.5035246908</v>
       </c>
       <c r="U28">
-        <v>62044.268477724</v>
+        <v>42565.1499127546</v>
       </c>
       <c r="V28">
-        <v>4199.31424696673</v>
+        <v>23678.4328119362</v>
       </c>
       <c r="W28">
         <v>-13291.4290242785</v>
@@ -3068,7 +3068,7 @@
         <v>715.38264</v>
       </c>
       <c r="AC28">
-        <v>4914.69688696673</v>
+        <v>24393.8154519362</v>
       </c>
     </row>
     <row r="29">
@@ -3119,10 +3119,10 @@
         <v>2944.656</v>
       </c>
       <c r="O29">
-        <v>205961.050893125</v>
+        <v>411922.10178625</v>
       </c>
       <c r="P29">
-        <v>53045.6246504869</v>
+        <v>35725.5965908107</v>
       </c>
       <c r="Q29">
         <v>70719.2489549378</v>
@@ -3137,10 +3137,10 @@
         <v>21215.7746864813</v>
       </c>
       <c r="U29">
-        <v>55167.202119135</v>
+        <v>37847.1740594588</v>
       </c>
       <c r="V29">
-        <v>-26545.1714326537</v>
+        <v>-9225.14337297749</v>
       </c>
       <c r="W29">
         <v>-42097.2182684564</v>
@@ -3161,7 +3161,7 @@
         <v>15649.38264</v>
       </c>
       <c r="AC29">
-        <v>-10895.7887926537</v>
+        <v>6424.23926702251</v>
       </c>
     </row>
     <row r="30">
@@ -3212,10 +3212,10 @@
         <v>941.1138</v>
       </c>
       <c r="O30">
-        <v>46327.1735621875</v>
+        <v>92654.347124375</v>
       </c>
       <c r="P30">
-        <v>11931.643625051</v>
+        <v>8035.81991205711</v>
       </c>
       <c r="Q30">
         <v>15907.0023497938</v>
@@ -3230,10 +3230,10 @@
         <v>4772.10070493815</v>
       </c>
       <c r="U30">
-        <v>12408.8536955448</v>
+        <v>8513.02998255092</v>
       </c>
       <c r="V30">
-        <v>1146.97580939334</v>
+        <v>5042.79952238723</v>
       </c>
       <c r="W30">
         <v>-2351.17284485569</v>
@@ -3254,7 +3254,7 @@
         <v>19575.38264</v>
       </c>
       <c r="AC30">
-        <v>20722.3584493933</v>
+        <v>24618.1821623872</v>
       </c>
     </row>
     <row r="31">
@@ -3305,10 +3305,10 @@
         <v>3788.532</v>
       </c>
       <c r="O31">
-        <v>222997.236140625</v>
+        <v>445994.47228125</v>
       </c>
       <c r="P31">
-        <v>57433.3236071405</v>
+        <v>38680.6595940303</v>
       </c>
       <c r="Q31">
         <v>76568.8317791465</v>
@@ -3323,10 +3323,10 @@
         <v>22970.6495337439</v>
       </c>
       <c r="U31">
-        <v>59730.3885605149</v>
+        <v>40977.7245474047</v>
       </c>
       <c r="V31">
-        <v>-15750.607026771</v>
+        <v>3002.05698633924</v>
       </c>
       <c r="W31">
         <v>-32589.0502454025</v>
@@ -3347,7 +3347,7 @@
         <v>13137.38264</v>
       </c>
       <c r="AC31">
-        <v>-2613.22438677096</v>
+        <v>16139.4396263392</v>
       </c>
     </row>
     <row r="32">
@@ -3398,10 +3398,10 @@
         <v>867.1938</v>
       </c>
       <c r="O32">
-        <v>50867.477649375</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P32">
-        <v>13101.0067903856</v>
+        <v>8823.372080368</v>
       </c>
       <c r="Q32">
         <v>17465.9713571891</v>
@@ -3416,10 +3416,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U32">
-        <v>13624.9859311012</v>
+        <v>9347.35122108367</v>
       </c>
       <c r="V32">
-        <v>365.579276055485</v>
+        <v>4643.21398607306</v>
       </c>
       <c r="W32">
         <v>-3475.40615003236</v>
@@ -3440,7 +3440,7 @@
         <v>-100.61736</v>
       </c>
       <c r="AC32">
-        <v>264.961916055485</v>
+        <v>4542.59662607306</v>
       </c>
     </row>
     <row r="33">
@@ -3491,10 +3491,10 @@
         <v>2421.9096</v>
       </c>
       <c r="O33">
-        <v>111431.651933333</v>
+        <v>222863.303866667</v>
       </c>
       <c r="P33">
-        <v>28699.4145592438</v>
+        <v>19328.7139833233</v>
       </c>
       <c r="Q33">
         <v>38261.4222463963</v>
@@ -3509,10 +3509,10 @@
         <v>11478.4266739189</v>
       </c>
       <c r="U33">
-        <v>29847.2572266357</v>
+        <v>20476.5566507151</v>
       </c>
       <c r="V33">
-        <v>4235.65904728321</v>
+        <v>13606.3596232038</v>
       </c>
       <c r="W33">
         <v>-4178.50597247741</v>
@@ -3533,7 +3533,7 @@
         <v>15295.38264</v>
       </c>
       <c r="AC33">
-        <v>19531.0416872832</v>
+        <v>28901.7422632038</v>
       </c>
     </row>
     <row r="34">
@@ -3584,10 +3584,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O34">
-        <v>203469.9105975</v>
+        <v>406939.821195</v>
       </c>
       <c r="P34">
-        <v>52404.0271615423</v>
+        <v>35293.488321472</v>
       </c>
       <c r="Q34">
         <v>69863.8854287563</v>
@@ -3602,10 +3602,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U34">
-        <v>54499.943724405</v>
+        <v>37389.4048843347</v>
       </c>
       <c r="V34">
-        <v>-12667.7614957781</v>
+        <v>4442.77734429223</v>
       </c>
       <c r="W34">
         <v>-28031.7032001294</v>
@@ -3626,7 +3626,7 @@
         <v>21679.38264</v>
       </c>
       <c r="AC34">
-        <v>9011.62114422195</v>
+        <v>26122.1599842922</v>
       </c>
     </row>
     <row r="35">
@@ -3677,10 +3677,10 @@
         <v>267.7818</v>
       </c>
       <c r="O35">
-        <v>14866.482409375</v>
+        <v>29732.96481875</v>
       </c>
       <c r="P35">
-        <v>3828.88824047603</v>
+        <v>2578.71063960202</v>
       </c>
       <c r="Q35">
         <v>5104.58878527643</v>
@@ -3695,10 +3695,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U35">
-        <v>3982.02590403433</v>
+        <v>2731.84830316031</v>
       </c>
       <c r="V35">
-        <v>-559.947468451398</v>
+        <v>690.230132422616</v>
       </c>
       <c r="W35">
         <v>-1682.5103496935</v>
@@ -3719,7 +3719,7 @@
         <v>3925.38264</v>
       </c>
       <c r="AC35">
-        <v>3365.4351715486</v>
+        <v>4615.61277242262</v>
       </c>
     </row>
     <row r="36">
@@ -3863,10 +3863,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O37">
-        <v>138981.520686562</v>
+        <v>277963.041373125</v>
       </c>
       <c r="P37">
-        <v>35794.930875153</v>
+        <v>24107.4597361713</v>
       </c>
       <c r="Q37">
         <v>47721.0070493815</v>
@@ -3881,10 +3881,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U37">
-        <v>37226.5610866344</v>
+        <v>25539.0899476528</v>
       </c>
       <c r="V37">
-        <v>-15904.41157182</v>
+        <v>-4216.9404328383</v>
       </c>
       <c r="W37">
         <v>-26398.8575345671</v>
@@ -3905,7 +3905,7 @@
         <v>7751.38264</v>
       </c>
       <c r="AC37">
-        <v>-8153.02893181996</v>
+        <v>3534.4422071617</v>
       </c>
     </row>
     <row r="38">
@@ -3956,10 +3956,10 @@
         <v>3713.9322</v>
       </c>
       <c r="O38">
-        <v>203469.9105975</v>
+        <v>406939.821195</v>
       </c>
       <c r="P38">
-        <v>52404.0271615423</v>
+        <v>35293.488321472</v>
       </c>
       <c r="Q38">
         <v>69863.8854287563</v>
@@ -3974,10 +3974,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U38">
-        <v>54499.943724405</v>
+        <v>37389.4048843347</v>
       </c>
       <c r="V38">
-        <v>-18572.5058957781</v>
+        <v>-1461.96705570777</v>
       </c>
       <c r="W38">
         <v>-33936.4476001294</v>
@@ -3998,7 +3998,7 @@
         <v>24399.38264</v>
       </c>
       <c r="AC38">
-        <v>5826.87674422194</v>
+        <v>22937.4155842922</v>
       </c>
     </row>
     <row r="39">
@@ -4049,10 +4049,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O39">
-        <v>133798.341684375</v>
+        <v>267596.68336875</v>
       </c>
       <c r="P39">
-        <v>34459.9941642843</v>
+        <v>23208.3957564182</v>
       </c>
       <c r="Q39">
         <v>45941.2990674879</v>
@@ -4067,10 +4067,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U39">
-        <v>35838.2331363089</v>
+        <v>24586.6347284428</v>
       </c>
       <c r="V39">
-        <v>-10520.6110160626</v>
+        <v>730.987391803541</v>
       </c>
       <c r="W39">
         <v>-20623.6769472415</v>
@@ -4091,7 +4091,7 @@
         <v>18451.38264</v>
       </c>
       <c r="AC39">
-        <v>7930.77162393741</v>
+        <v>19182.3700318035</v>
       </c>
     </row>
     <row r="40">
@@ -4142,10 +4142,10 @@
         <v>1349.4162</v>
       </c>
       <c r="O40">
-        <v>64019.6269520833</v>
+        <v>128039.253904167</v>
       </c>
       <c r="P40">
-        <v>16488.365576104</v>
+        <v>11104.7178894573</v>
       </c>
       <c r="Q40">
         <v>21981.9228771363</v>
@@ -4160,10 +4160,10 @@
         <v>6594.5768631409</v>
       </c>
       <c r="U40">
-        <v>17147.8232624181</v>
+        <v>11764.1755757714</v>
       </c>
       <c r="V40">
-        <v>-3.26519927719346</v>
+        <v>5380.38248736946</v>
       </c>
       <c r="W40">
         <v>-4837.36481399543</v>
@@ -4184,7 +4184,7 @@
         <v>1549.38264</v>
       </c>
       <c r="AC40">
-        <v>1546.11744072281</v>
+        <v>6929.76512736946</v>
       </c>
     </row>
     <row r="41">
@@ -4235,10 +4235,10 @@
         <v>757.8582</v>
       </c>
       <c r="O41">
-        <v>56171.195698125</v>
+        <v>112342.39139625</v>
       </c>
       <c r="P41">
-        <v>14466.9885410419</v>
+        <v>9743.34452476655</v>
       </c>
       <c r="Q41">
         <v>19287.0678968012</v>
@@ -4253,10 +4253,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U41">
-        <v>15045.6005779459</v>
+        <v>10321.9565616706</v>
       </c>
       <c r="V41">
-        <v>-4482.67700890555</v>
+        <v>240.967007369776</v>
       </c>
       <c r="W41">
         <v>-8724.14432776085</v>
@@ -4277,7 +4277,7 @@
         <v>10979.38264</v>
       </c>
       <c r="AC41">
-        <v>6496.70563109445</v>
+        <v>11220.3496473698</v>
       </c>
     </row>
     <row r="42">
@@ -4328,10 +4328,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O42">
-        <v>125360.608425</v>
+        <v>250721.21685</v>
       </c>
       <c r="P42">
-        <v>32286.8413791493</v>
+        <v>21744.8032312387</v>
       </c>
       <c r="Q42">
         <v>43044.1000271958</v>
@@ -4346,10 +4346,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U42">
-        <v>33578.1643799651</v>
+        <v>23036.1262320545</v>
       </c>
       <c r="V42">
-        <v>1405.77882819362</v>
+        <v>11947.8169761042</v>
       </c>
       <c r="W42">
         <v>-8060.1568190371</v>
@@ -4370,7 +4370,7 @@
         <v>-3310.61736</v>
       </c>
       <c r="AC42">
-        <v>-1904.83853180638</v>
+        <v>8637.19961610422</v>
       </c>
     </row>
     <row r="43">
@@ -4421,10 +4421,10 @@
         <v>4077.6516</v>
       </c>
       <c r="O43">
-        <v>181076.434391667</v>
+        <v>362152.868783333</v>
       </c>
       <c r="P43">
-        <v>46636.5486587712</v>
+        <v>31409.1602229003</v>
       </c>
       <c r="Q43">
         <v>62174.811150394</v>
@@ -4439,10 +4439,10 @@
         <v>18652.4433451182</v>
       </c>
       <c r="U43">
-        <v>48501.792993283</v>
+        <v>33274.4045574121</v>
       </c>
       <c r="V43">
-        <v>-16504.3080481648</v>
+        <v>-1276.91961229392</v>
       </c>
       <c r="W43">
         <v>-30177.3262052758</v>
@@ -4463,7 +4463,7 @@
         <v>5149.38264</v>
       </c>
       <c r="AC43">
-        <v>-11354.9254081648</v>
+        <v>3872.46302770608</v>
       </c>
     </row>
     <row r="44">
@@ -4514,10 +4514,10 @@
         <v>2509.3398</v>
       </c>
       <c r="O44">
-        <v>123539.129499167</v>
+        <v>247078.258998333</v>
       </c>
       <c r="P44">
-        <v>31817.7163334693</v>
+        <v>21428.853098819</v>
       </c>
       <c r="Q44">
         <v>42418.6729327836</v>
@@ -4532,10 +4532,10 @@
         <v>12725.6018798351</v>
       </c>
       <c r="U44">
-        <v>33090.2765214528</v>
+        <v>22701.4132868025</v>
       </c>
       <c r="V44">
-        <v>4956.84515838226</v>
+        <v>15345.7083930326</v>
       </c>
       <c r="W44">
         <v>-4371.55125294851</v>
@@ -4556,7 +4556,7 @@
         <v>32559.38264</v>
       </c>
       <c r="AC44">
-        <v>37516.2277983823</v>
+        <v>47905.0910330326</v>
       </c>
     </row>
     <row r="45">
@@ -4607,10 +4607,10 @@
         <v>785.334</v>
       </c>
       <c r="O45">
-        <v>38411.77617125</v>
+        <v>76823.5523425</v>
       </c>
       <c r="P45">
-        <v>9893.0193456624</v>
+        <v>6662.83073367441</v>
       </c>
       <c r="Q45">
         <v>13189.1537262818</v>
@@ -4625,10 +4625,10 @@
         <v>3956.74611788454</v>
       </c>
       <c r="U45">
-        <v>10288.6939574509</v>
+        <v>7058.50534546286</v>
       </c>
       <c r="V45">
-        <v>-192.063839566315</v>
+        <v>3038.12477242168</v>
       </c>
       <c r="W45">
         <v>-3092.52360839726</v>
@@ -4649,7 +4649,7 @@
         <v>16837.38264</v>
       </c>
       <c r="AC45">
-        <v>16645.3188004337</v>
+        <v>19875.5074124217</v>
       </c>
     </row>
     <row r="46">
@@ -4700,10 +4700,10 @@
         <v>289.0998</v>
       </c>
       <c r="O46">
-        <v>13928.9564916667</v>
+        <v>27857.9129833333</v>
       </c>
       <c r="P46">
-        <v>3587.42681990547</v>
+        <v>2416.08924791541</v>
       </c>
       <c r="Q46">
         <v>4782.67778079954</v>
@@ -4718,10 +4718,10 @@
         <v>1434.80333423986</v>
       </c>
       <c r="U46">
-        <v>3730.90715332946</v>
+        <v>2559.56958133939</v>
       </c>
       <c r="V46">
-        <v>-1130.9440190896</v>
+        <v>40.3935529004693</v>
       </c>
       <c r="W46">
         <v>-2182.71464655968</v>
@@ -4742,7 +4742,7 @@
         <v>-5740.61736</v>
       </c>
       <c r="AC46">
-        <v>-6871.5613790896</v>
+        <v>-5700.22380709953</v>
       </c>
     </row>
     <row r="47">
@@ -4793,10 +4793,10 @@
         <v>3508.3158</v>
       </c>
       <c r="O47">
-        <v>243408.514691875</v>
+        <v>486817.02938375</v>
       </c>
       <c r="P47">
-        <v>62690.2836778482</v>
+        <v>42221.1596073217</v>
       </c>
       <c r="Q47">
         <v>83577.2942194719</v>
@@ -4811,10 +4811,10 @@
         <v>25073.1882658416</v>
       </c>
       <c r="U47">
-        <v>65197.6025044323</v>
+        <v>44728.4784339059</v>
       </c>
       <c r="V47">
-        <v>-4722.31843859075</v>
+        <v>15746.8056319357</v>
       </c>
       <c r="W47">
         <v>-23102.0101536304</v>
@@ -4835,7 +4835,7 @@
         <v>21751.38264</v>
       </c>
       <c r="AC47">
-        <v>17029.0642014092</v>
+        <v>37498.1882719357</v>
       </c>
     </row>
     <row r="48">
@@ -4886,10 +4886,10 @@
         <v>1767.9552</v>
       </c>
       <c r="O48">
-        <v>89627.4777329167</v>
+        <v>179254.955465833</v>
       </c>
       <c r="P48">
-        <v>23083.7118065456</v>
+        <v>15546.6050452403</v>
       </c>
       <c r="Q48">
         <v>30774.6920279909</v>
@@ -4904,10 +4904,10 @@
         <v>9232.40760839726</v>
       </c>
       <c r="U48">
-        <v>24006.9525673853</v>
+        <v>16469.84580608</v>
       </c>
       <c r="V48">
-        <v>-3631.06975898807</v>
+        <v>3906.03700231725</v>
       </c>
       <c r="W48">
         <v>-10398.8092195936</v>
@@ -4928,7 +4928,7 @@
         <v>18559.38264</v>
       </c>
       <c r="AC48">
-        <v>14928.3128810119</v>
+        <v>22465.4196423172</v>
       </c>
     </row>
     <row r="49">
@@ -4979,10 +4979,10 @@
         <v>577.8894</v>
       </c>
       <c r="O49">
-        <v>33911.65176625</v>
+        <v>67823.3035325</v>
       </c>
       <c r="P49">
-        <v>8734.00452692371</v>
+        <v>5882.24805357866</v>
       </c>
       <c r="Q49">
         <v>11643.9809047927</v>
@@ -4997,10 +4997,10 @@
         <v>3493.19427143782</v>
       </c>
       <c r="U49">
-        <v>9083.32395406749</v>
+        <v>6231.56748072244</v>
       </c>
       <c r="V49">
-        <v>-1509.88028262968</v>
+        <v>1341.87619071537</v>
       </c>
       <c r="W49">
         <v>-4070.53723335491</v>
@@ -5021,7 +5021,7 @@
         <v>32985.38264</v>
       </c>
       <c r="AC49">
-        <v>31475.5023573703</v>
+        <v>34327.2588307154</v>
       </c>
     </row>
     <row r="50">
@@ -5165,10 +5165,10 @@
         <v>535.5504</v>
       </c>
       <c r="O51">
-        <v>37447.46379875</v>
+        <v>74894.9275975</v>
       </c>
       <c r="P51">
-        <v>9644.65902736125</v>
+        <v>6495.56301651104</v>
       </c>
       <c r="Q51">
         <v>12858.0452645341</v>
@@ -5183,10 +5183,10 @@
         <v>3857.41357936024</v>
       </c>
       <c r="U51">
-        <v>10030.4003852973</v>
+        <v>6881.30437444706</v>
       </c>
       <c r="V51">
-        <v>-3203.11640593703</v>
+        <v>-54.0203950868181</v>
       </c>
       <c r="W51">
         <v>-6030.7612851739</v>
@@ -5207,7 +5207,7 @@
         <v>18559.38264</v>
       </c>
       <c r="AC51">
-        <v>15356.266234063</v>
+        <v>18505.3622449132</v>
       </c>
     </row>
     <row r="52">
@@ -5258,10 +5258,10 @@
         <v>3788.532</v>
       </c>
       <c r="O52">
-        <v>280855.978490625</v>
+        <v>561711.95698125</v>
       </c>
       <c r="P52">
-        <v>72334.9427052094</v>
+        <v>48716.7226238328</v>
       </c>
       <c r="Q52">
         <v>96435.3394840061</v>
@@ -5276,10 +5276,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U52">
-        <v>75228.0028897296</v>
+        <v>51609.782808353</v>
       </c>
       <c r="V52">
-        <v>-19548.0690445278</v>
+        <v>4070.15103684887</v>
       </c>
       <c r="W52">
         <v>-40755.4056388043</v>
@@ -5300,7 +5300,7 @@
         <v>19149.38264</v>
       </c>
       <c r="AC52">
-        <v>-398.68640452778</v>
+        <v>23219.5336768489</v>
       </c>
     </row>
     <row r="53">
@@ -5351,10 +5351,10 @@
         <v>2822.9982</v>
       </c>
       <c r="O53">
-        <v>125360.608425</v>
+        <v>250721.21685</v>
       </c>
       <c r="P53">
-        <v>32286.8413791493</v>
+        <v>21744.8032312387</v>
       </c>
       <c r="Q53">
         <v>43044.1000271958</v>
@@ -5369,10 +5369,10 @@
         <v>12913.2300081588</v>
       </c>
       <c r="U53">
-        <v>33578.1643799651</v>
+        <v>23036.1262320545</v>
       </c>
       <c r="V53">
-        <v>3544.41382819362</v>
+        <v>14086.4519761042</v>
       </c>
       <c r="W53">
         <v>-5921.52181903709</v>
@@ -5393,7 +5393,7 @@
         <v>18451.38264</v>
       </c>
       <c r="AC53">
-        <v>21995.7964681936</v>
+        <v>32537.8346161042</v>
       </c>
     </row>
     <row r="54">
@@ -5444,10 +5444,10 @@
         <v>2421.9096</v>
       </c>
       <c r="O54">
-        <v>123539.129499167</v>
+        <v>247078.258998333</v>
       </c>
       <c r="P54">
-        <v>31817.7163334693</v>
+        <v>21428.853098819</v>
       </c>
       <c r="Q54">
         <v>42418.6729327836</v>
@@ -5462,10 +5462,10 @@
         <v>12725.6018798351</v>
       </c>
       <c r="U54">
-        <v>33090.2765214528</v>
+        <v>22701.4132868025</v>
       </c>
       <c r="V54">
-        <v>405.034958382254</v>
+        <v>10793.8981930326</v>
       </c>
       <c r="W54">
         <v>-8923.36145294852</v>
@@ -5486,7 +5486,7 @@
         <v>30401.38264</v>
       </c>
       <c r="AC54">
-        <v>30806.4175983823</v>
+        <v>41195.2808330326</v>
       </c>
     </row>
     <row r="55">
@@ -5537,10 +5537,10 @@
         <v>2785.4574</v>
       </c>
       <c r="O55">
-        <v>138981.520686562</v>
+        <v>277963.041373125</v>
       </c>
       <c r="P55">
-        <v>35794.930875153</v>
+        <v>24107.4597361713</v>
       </c>
       <c r="Q55">
         <v>47721.0070493815</v>
@@ -5555,10 +5555,10 @@
         <v>14316.3021148145</v>
       </c>
       <c r="U55">
-        <v>37226.5610866344</v>
+        <v>25539.0899476528</v>
       </c>
       <c r="V55">
-        <v>-13794.21657182</v>
+        <v>-2106.7454328383</v>
       </c>
       <c r="W55">
         <v>-24288.6625345671</v>
@@ -5579,7 +5579,7 @@
         <v>6373.38264</v>
       </c>
       <c r="AC55">
-        <v>-7420.83393181996</v>
+        <v>4266.6372071617</v>
       </c>
     </row>
     <row r="56">
@@ -5630,10 +5630,10 @@
         <v>3212.3586</v>
       </c>
       <c r="O56">
-        <v>178397.7889125</v>
+        <v>356795.577825</v>
       </c>
       <c r="P56">
-        <v>45946.6588857124</v>
+        <v>30944.5276752242</v>
       </c>
       <c r="Q56">
         <v>61255.0654233172</v>
@@ -5648,10 +5648,10 @@
         <v>18376.5196269951</v>
       </c>
       <c r="U56">
-        <v>47784.3108484119</v>
+        <v>32782.1796379238</v>
       </c>
       <c r="V56">
-        <v>-11593.8026214168</v>
+        <v>3408.32858907139</v>
       </c>
       <c r="W56">
         <v>-25064.557196322</v>
@@ -5672,7 +5672,7 @@
         <v>16837.38264</v>
       </c>
       <c r="AC56">
-        <v>5243.58001858322</v>
+        <v>20245.7112290714</v>
       </c>
     </row>
     <row r="57">
@@ -5816,10 +5816,10 @@
         <v>1832.0346</v>
       </c>
       <c r="O58">
-        <v>104065.376865625</v>
+        <v>208130.75373125</v>
       </c>
       <c r="P58">
-        <v>26802.2176833322</v>
+        <v>18050.9744772141</v>
       </c>
       <c r="Q58">
         <v>35732.121496935</v>
@@ -5834,10 +5834,10 @@
         <v>10719.6364490805</v>
       </c>
       <c r="U58">
-        <v>27874.1813282403</v>
+        <v>19122.9381221222</v>
       </c>
       <c r="V58">
-        <v>-6995.08027915979</v>
+        <v>1756.16292695831</v>
       </c>
       <c r="W58">
         <v>-14853.0204478545</v>
@@ -5858,7 +5858,7 @@
         <v>21461.38264</v>
       </c>
       <c r="AC58">
-        <v>14466.3023608402</v>
+        <v>23217.5455669583</v>
       </c>
     </row>
     <row r="59">
@@ -5909,10 +5909,10 @@
         <v>3468.3858</v>
       </c>
       <c r="O59">
-        <v>167147.4779</v>
+        <v>334294.9558</v>
       </c>
       <c r="P59">
-        <v>43049.1218388657</v>
+        <v>28993.0709749849</v>
       </c>
       <c r="Q59">
         <v>57392.1333695944</v>
@@ -5927,10 +5927,10 @@
         <v>17217.6400108783</v>
       </c>
       <c r="U59">
-        <v>44770.8858399535</v>
+        <v>30714.8349760727</v>
       </c>
       <c r="V59">
-        <v>-3064.34002907517</v>
+        <v>10991.7108348056</v>
       </c>
       <c r="W59">
         <v>-15685.5875587161</v>
@@ -5951,7 +5951,7 @@
         <v>19149.38264</v>
       </c>
       <c r="AC59">
-        <v>16085.0426109248</v>
+        <v>30141.0934748056</v>
       </c>
     </row>
     <row r="60">
@@ -6002,10 +6002,10 @@
         <v>908.325</v>
       </c>
       <c r="O60">
-        <v>41786.869475</v>
+        <v>83573.73895</v>
       </c>
       <c r="P60">
-        <v>10762.2804597164</v>
+        <v>7248.26774374622</v>
       </c>
       <c r="Q60">
         <v>14348.0333423986</v>
@@ -6020,10 +6020,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U60">
-        <v>11192.7214599884</v>
+        <v>7678.70874401818</v>
       </c>
       <c r="V60">
-        <v>-3227.48645726879</v>
+        <v>286.526258701406</v>
       </c>
       <c r="W60">
         <v>-6382.79833967903</v>
@@ -6044,7 +6044,7 @@
         <v>23773.38264</v>
       </c>
       <c r="AC60">
-        <v>20545.8961827312</v>
+        <v>24059.9088987014</v>
       </c>
     </row>
     <row r="61">
@@ -6095,10 +6095,10 @@
         <v>1547.601</v>
       </c>
       <c r="O61">
-        <v>84779.129415625</v>
+        <v>169558.25883125</v>
       </c>
       <c r="P61">
-        <v>21835.0113173093</v>
+        <v>14705.6201339467</v>
       </c>
       <c r="Q61">
         <v>29109.9522619818</v>
@@ -6113,10 +6113,10 @@
         <v>8732.98567859454</v>
       </c>
       <c r="U61">
-        <v>22708.3098851687</v>
+        <v>15578.9187018061</v>
       </c>
       <c r="V61">
-        <v>-10082.8732065742</v>
+        <v>-2953.48202321157</v>
       </c>
       <c r="W61">
         <v>-16484.5155833873</v>
@@ -6137,7 +6137,7 @@
         <v>35569.38264</v>
       </c>
       <c r="AC61">
-        <v>25486.5094334258</v>
+        <v>32615.9006167884</v>
       </c>
     </row>
     <row r="62">
@@ -6281,10 +6281,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O63">
-        <v>203469.9105975</v>
+        <v>406939.821195</v>
       </c>
       <c r="P63">
-        <v>52404.0271615423</v>
+        <v>35293.488321472</v>
       </c>
       <c r="Q63">
         <v>69863.8854287563</v>
@@ -6299,10 +6299,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U63">
-        <v>54499.943724405</v>
+        <v>37389.4048843347</v>
       </c>
       <c r="V63">
-        <v>4441.26850422195</v>
+        <v>21551.8073442922</v>
       </c>
       <c r="W63">
         <v>-10922.6732001294</v>
@@ -6323,7 +6323,7 @@
         <v>7153.38264</v>
       </c>
       <c r="AC63">
-        <v>11594.6511442219</v>
+        <v>28705.1899842922</v>
       </c>
     </row>
     <row r="64">
@@ -6374,10 +6374,10 @@
         <v>2409.2574</v>
       </c>
       <c r="O64">
-        <v>115235.32851375</v>
+        <v>230470.6570275</v>
       </c>
       <c r="P64">
-        <v>29679.0580369872</v>
+        <v>19988.4922010232</v>
       </c>
       <c r="Q64">
         <v>39567.4611788454</v>
@@ -6392,10 +6392,10 @@
         <v>11870.2383536536</v>
       </c>
       <c r="U64">
-        <v>30866.0818723526</v>
+        <v>21175.5160363886</v>
       </c>
       <c r="V64">
-        <v>-3810.22111869894</v>
+        <v>5880.34471726504</v>
       </c>
       <c r="W64">
         <v>-12511.6004251918</v>
@@ -6416,7 +6416,7 @@
         <v>35279.38264</v>
       </c>
       <c r="AC64">
-        <v>31469.1615213011</v>
+        <v>41159.727357265</v>
       </c>
     </row>
     <row r="65">
@@ -6467,10 +6467,10 @@
         <v>2968.5678</v>
       </c>
       <c r="O65">
-        <v>205961.050893125</v>
+        <v>411922.10178625</v>
       </c>
       <c r="P65">
-        <v>53045.6246504869</v>
+        <v>35725.5965908107</v>
       </c>
       <c r="Q65">
         <v>70719.2489549378</v>
@@ -6485,10 +6485,10 @@
         <v>21215.7746864813</v>
       </c>
       <c r="U65">
-        <v>55167.202119135</v>
+        <v>37847.1740594588</v>
       </c>
       <c r="V65">
-        <v>-17489.3696326537</v>
+        <v>-169.341572977493</v>
       </c>
       <c r="W65">
         <v>-33041.4164684564</v>
@@ -6509,7 +6509,7 @@
         <v>17399.38264</v>
       </c>
       <c r="AC65">
-        <v>-89.9869926536958</v>
+        <v>17230.0410670225</v>
       </c>
     </row>
     <row r="66">
@@ -6560,10 +6560,10 @@
         <v>1767.9552</v>
       </c>
       <c r="O66">
-        <v>104065.376865625</v>
+        <v>208130.75373125</v>
       </c>
       <c r="P66">
-        <v>26802.2176833322</v>
+        <v>18050.9744772141</v>
       </c>
       <c r="Q66">
         <v>35732.121496935</v>
@@ -6578,10 +6578,10 @@
         <v>10719.6364490805</v>
       </c>
       <c r="U66">
-        <v>27874.1813282403</v>
+        <v>19122.9381221222</v>
       </c>
       <c r="V66">
-        <v>-6011.06967915978</v>
+        <v>2740.17352695831</v>
       </c>
       <c r="W66">
         <v>-13869.0098478545</v>
@@ -6602,7 +6602,7 @@
         <v>5575.38264</v>
       </c>
       <c r="AC66">
-        <v>-435.687039159784</v>
+        <v>8315.55616695831</v>
       </c>
     </row>
     <row r="67">
@@ -6653,10 +6653,10 @@
         <v>803.2992</v>
       </c>
       <c r="O67">
-        <v>56171.195698125</v>
+        <v>112342.39139625</v>
       </c>
       <c r="P67">
-        <v>14466.9885410419</v>
+        <v>9743.34452476655</v>
       </c>
       <c r="Q67">
         <v>19287.0678968012</v>
@@ -6671,10 +6671,10 @@
         <v>5786.12036904036</v>
       </c>
       <c r="U67">
-        <v>15045.6005779459</v>
+        <v>10321.9565616706</v>
       </c>
       <c r="V67">
-        <v>-2370.58100890555</v>
+        <v>2353.06300736978</v>
       </c>
       <c r="W67">
         <v>-6612.04832776085</v>
@@ -6695,7 +6695,7 @@
         <v>37999.38264</v>
       </c>
       <c r="AC67">
-        <v>35628.8016310944</v>
+        <v>40352.4456473698</v>
       </c>
     </row>
     <row r="68">
@@ -6746,10 +6746,10 @@
         <v>2355.4872</v>
       </c>
       <c r="O68">
-        <v>133798.341684375</v>
+        <v>267596.68336875</v>
       </c>
       <c r="P68">
-        <v>34459.9941642843</v>
+        <v>23208.3957564182</v>
       </c>
       <c r="Q68">
         <v>45941.2990674879</v>
@@ -6764,10 +6764,10 @@
         <v>13782.3897202464</v>
       </c>
       <c r="U68">
-        <v>35838.2331363089</v>
+        <v>24586.6347284428</v>
       </c>
       <c r="V68">
-        <v>-8993.59621606259</v>
+        <v>2258.00219180354</v>
       </c>
       <c r="W68">
         <v>-19096.6621472415</v>
@@ -6788,7 +6788,7 @@
         <v>5539.38264</v>
       </c>
       <c r="AC68">
-        <v>-3454.21357606259</v>
+        <v>7797.38483180354</v>
       </c>
     </row>
     <row r="69">
@@ -6839,10 +6839,10 @@
         <v>3763.9866</v>
       </c>
       <c r="O69">
-        <v>167147.4779</v>
+        <v>334294.9558</v>
       </c>
       <c r="P69">
-        <v>43049.1218388657</v>
+        <v>28993.0709749849</v>
       </c>
       <c r="Q69">
         <v>57392.1333695944</v>
@@ -6857,10 +6857,10 @@
         <v>17217.6400108783</v>
       </c>
       <c r="U69">
-        <v>44770.8858399535</v>
+        <v>30714.8349760727</v>
       </c>
       <c r="V69">
-        <v>-977.21922907517</v>
+        <v>13078.8316348056</v>
       </c>
       <c r="W69">
         <v>-13598.4667587161</v>
@@ -6881,7 +6881,7 @@
         <v>23927.38264</v>
       </c>
       <c r="AC69">
-        <v>22950.1634109248</v>
+        <v>37006.2142748056</v>
       </c>
     </row>
     <row r="70">
@@ -7025,10 +7025,10 @@
         <v>1010.328</v>
       </c>
       <c r="O71">
-        <v>74894.9275975</v>
+        <v>149789.855195</v>
       </c>
       <c r="P71">
-        <v>19289.3180547225</v>
+        <v>12991.1260330221</v>
       </c>
       <c r="Q71">
         <v>25716.0905290683</v>
@@ -7043,10 +7043,10 @@
         <v>7714.82715872049</v>
       </c>
       <c r="U71">
-        <v>20060.8007705946</v>
+        <v>13762.6087488941</v>
       </c>
       <c r="V71">
-        <v>-2916.24561187407</v>
+        <v>3381.94640982636</v>
       </c>
       <c r="W71">
         <v>-8571.5353703478</v>
@@ -7067,7 +7067,7 @@
         <v>25795.38264</v>
       </c>
       <c r="AC71">
-        <v>22879.1370281259</v>
+        <v>29177.3290498264</v>
       </c>
     </row>
     <row r="72">
@@ -7118,10 +7118,10 @@
         <v>928.6002</v>
       </c>
       <c r="O72">
-        <v>41786.869475</v>
+        <v>83573.73895</v>
       </c>
       <c r="P72">
-        <v>10762.2804597164</v>
+        <v>7248.26774374622</v>
       </c>
       <c r="Q72">
         <v>14348.0333423986</v>
@@ -7136,10 +7136,10 @@
         <v>4304.41000271958</v>
       </c>
       <c r="U72">
-        <v>11192.7214599884</v>
+        <v>7678.70874401818</v>
       </c>
       <c r="V72">
-        <v>2482.10874273121</v>
+        <v>5996.12145870141</v>
       </c>
       <c r="W72">
         <v>-673.203139679028</v>
@@ -7160,7 +7160,7 @@
         <v>-6828.61736</v>
       </c>
       <c r="AC72">
-        <v>-4346.50861726879</v>
+        <v>-832.495901298594</v>
       </c>
     </row>
     <row r="73">
@@ -7397,10 +7397,10 @@
         <v>3330.1092</v>
       </c>
       <c r="O75">
-        <v>153218.521408333</v>
+        <v>306437.042816667</v>
       </c>
       <c r="P75">
-        <v>39461.6950189602</v>
+        <v>26576.9817270695</v>
       </c>
       <c r="Q75">
         <v>52609.4555887949</v>
@@ -7415,10 +7415,10 @@
         <v>15782.8366766385</v>
       </c>
       <c r="U75">
-        <v>41039.9786866241</v>
+        <v>28155.2653947333</v>
       </c>
       <c r="V75">
-        <v>-4267.36280998559</v>
+        <v>8617.35048190516</v>
       </c>
       <c r="W75">
         <v>-15836.8397121564</v>
@@ -7439,7 +7439,7 @@
         <v>7597.38264</v>
       </c>
       <c r="AC75">
-        <v>3330.01983001441</v>
+        <v>16214.7331219052</v>
       </c>
     </row>
     <row r="76">
@@ -7490,10 +7490,10 @@
         <v>1734.2028</v>
       </c>
       <c r="O76">
-        <v>92654.347124375</v>
+        <v>185308.69424875</v>
       </c>
       <c r="P76">
-        <v>23863.287250102</v>
+        <v>16071.6398241142</v>
       </c>
       <c r="Q76">
         <v>31814.0046995877</v>
@@ -7508,10 +7508,10 @@
         <v>9544.20140987631</v>
       </c>
       <c r="U76">
-        <v>24817.7073910896</v>
+        <v>17026.0599651018</v>
       </c>
       <c r="V76">
-        <v>-401.403181213311</v>
+        <v>7390.24424477447</v>
       </c>
       <c r="W76">
         <v>-7397.70048971138</v>
@@ -7532,7 +7532,7 @@
         <v>-4144.61736</v>
       </c>
       <c r="AC76">
-        <v>-4546.02054121331</v>
+        <v>3245.62688477446</v>
       </c>
     </row>
     <row r="77">
@@ -7583,10 +7583,10 @@
         <v>309.573</v>
       </c>
       <c r="O77">
-        <v>16955.825883125</v>
+        <v>33911.65176625</v>
       </c>
       <c r="P77">
-        <v>4367.00226346186</v>
+        <v>2941.12402678933</v>
       </c>
       <c r="Q77">
         <v>5821.99045239636</v>
@@ -7601,10 +7601,10 @@
         <v>1746.59713571891</v>
       </c>
       <c r="U77">
-        <v>4541.66197703375</v>
+        <v>3115.78374036122</v>
       </c>
       <c r="V77">
-        <v>-609.291841314839</v>
+        <v>816.586395357686</v>
       </c>
       <c r="W77">
         <v>-1889.62031667745</v>
@@ -7625,7 +7625,7 @@
         <v>18451.38264</v>
       </c>
       <c r="AC77">
-        <v>17842.0907986852</v>
+        <v>19267.9690353577</v>
       </c>
     </row>
     <row r="78">
@@ -7676,10 +7676,10 @@
         <v>1156.2342</v>
       </c>
       <c r="O78">
-        <v>61769.5647495833</v>
+        <v>123539.129499167</v>
       </c>
       <c r="P78">
-        <v>15908.8581667347</v>
+        <v>10714.4265494095</v>
       </c>
       <c r="Q78">
         <v>21209.3364663918</v>
@@ -7694,10 +7694,10 @@
         <v>6362.80093991754</v>
       </c>
       <c r="U78">
-        <v>16545.1382607264</v>
+        <v>11350.7066434012</v>
       </c>
       <c r="V78">
-        <v>-5522.36312080887</v>
+        <v>-327.931503483691</v>
       </c>
       <c r="W78">
         <v>-10186.5613264743</v>
@@ -7718,7 +7718,7 @@
         <v>10381.38264</v>
       </c>
       <c r="AC78">
-        <v>4859.01951919113</v>
+        <v>10053.4511365163</v>
       </c>
     </row>
     <row r="79">
@@ -7862,10 +7862,10 @@
         <v>3757.413</v>
       </c>
       <c r="O80">
-        <v>200751.085436146</v>
+        <v>401502.170872292</v>
       </c>
       <c r="P80">
-        <v>51703.7890418876</v>
+        <v>34821.8862855808</v>
       </c>
       <c r="Q80">
         <v>68930.3435157733</v>
@@ -7880,10 +7880,10 @@
         <v>20679.103054732</v>
       </c>
       <c r="U80">
-        <v>53771.6993473608</v>
+        <v>36889.796591054</v>
       </c>
       <c r="V80">
-        <v>-9409.50829262883</v>
+        <v>7472.39446367801</v>
       </c>
       <c r="W80">
         <v>-24568.1524610413</v>
@@ -7904,7 +7904,7 @@
         <v>-6012.61736</v>
       </c>
       <c r="AC80">
-        <v>-15422.1256526288</v>
+        <v>1459.77710367801</v>
       </c>
     </row>
     <row r="81">
@@ -7955,10 +7955,10 @@
         <v>2023.2366</v>
       </c>
       <c r="O81">
-        <v>97502.6954416667</v>
+        <v>195005.390883333</v>
       </c>
       <c r="P81">
-        <v>25111.9877393383</v>
+        <v>16912.6247354078</v>
       </c>
       <c r="Q81">
         <v>33478.7444655968</v>
@@ -7973,10 +7973,10 @@
         <v>10043.623339679</v>
       </c>
       <c r="U81">
-        <v>26116.3500733062</v>
+        <v>17916.9870693758</v>
       </c>
       <c r="V81">
-        <v>-10983.9801336272</v>
+        <v>-2784.61712969672</v>
       </c>
       <c r="W81">
         <v>-18346.3745259177</v>
@@ -7997,7 +7997,7 @@
         <v>-3056.61736</v>
       </c>
       <c r="AC81">
-        <v>-14040.5974936272</v>
+        <v>-5841.23448969672</v>
       </c>
     </row>
     <row r="82">
@@ -8048,10 +8048,10 @@
         <v>261.7956</v>
       </c>
       <c r="O82">
-        <v>14866.482409375</v>
+        <v>29732.96481875</v>
       </c>
       <c r="P82">
-        <v>3828.88824047603</v>
+        <v>2578.71063960202</v>
       </c>
       <c r="Q82">
         <v>5104.58878527643</v>
@@ -8066,10 +8066,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U82">
-        <v>3982.02590403433</v>
+        <v>2731.84830316031</v>
       </c>
       <c r="V82">
-        <v>-1197.2036684514</v>
+        <v>52.9739324226161</v>
       </c>
       <c r="W82">
         <v>-2319.7665496935</v>
@@ -8090,7 +8090,7 @@
         <v>3925.38264</v>
       </c>
       <c r="AC82">
-        <v>2728.1789715486</v>
+        <v>3978.35657242262</v>
       </c>
     </row>
     <row r="83">
@@ -8141,10 +8141,10 @@
         <v>3094.9512</v>
       </c>
       <c r="O83">
-        <v>169558.25883125</v>
+        <v>339116.5176625</v>
       </c>
       <c r="P83">
-        <v>43670.0226346186</v>
+        <v>29411.2402678933</v>
       </c>
       <c r="Q83">
         <v>58219.9045239636</v>
@@ -8159,10 +8159,10 @@
         <v>17465.9713571891</v>
       </c>
       <c r="U83">
-        <v>45416.6197703375</v>
+        <v>31157.8374036122</v>
       </c>
       <c r="V83">
-        <v>-10787.7372131484</v>
+        <v>3471.04515357685</v>
       </c>
       <c r="W83">
         <v>-23591.0219667745</v>
@@ -8183,7 +8183,7 @@
         <v>17453.38264</v>
       </c>
       <c r="AC83">
-        <v>6665.64542685161</v>
+        <v>20924.4277935769</v>
       </c>
     </row>
     <row r="84">
@@ -8234,10 +8234,10 @@
         <v>1734.2028</v>
       </c>
       <c r="O84">
-        <v>101734.95529875</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P84">
-        <v>26202.0135807711</v>
+        <v>17646.744160736</v>
       </c>
       <c r="Q84">
         <v>34931.9427143782</v>
@@ -8252,10 +8252,10 @@
         <v>10479.5828143134</v>
       </c>
       <c r="U84">
-        <v>27249.9718622025</v>
+        <v>18694.7024421673</v>
       </c>
       <c r="V84">
-        <v>-4525.86624788903</v>
+        <v>4029.40317214611</v>
       </c>
       <c r="W84">
         <v>-12207.8371000647</v>
@@ -8276,7 +8276,7 @@
         <v>-2512.61736</v>
       </c>
       <c r="AC84">
-        <v>-7038.48360788903</v>
+        <v>1516.78581214611</v>
       </c>
     </row>
     <row r="85">
@@ -8327,10 +8327,10 @@
         <v>867.1938</v>
       </c>
       <c r="O85">
-        <v>50867.477649375</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P85">
-        <v>13101.0067903856</v>
+        <v>8823.372080368</v>
       </c>
       <c r="Q85">
         <v>17465.9713571891</v>
@@ -8345,10 +8345,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U85">
-        <v>13624.9859311012</v>
+        <v>9347.35122108367</v>
       </c>
       <c r="V85">
-        <v>-4233.17572394451</v>
+        <v>44.4589860730575</v>
       </c>
       <c r="W85">
         <v>-8074.16115003236</v>
@@ -8369,7 +8369,7 @@
         <v>13699.38264</v>
       </c>
       <c r="AC85">
-        <v>9466.20691605549</v>
+        <v>13743.8416260731</v>
       </c>
     </row>
     <row r="86">
@@ -8420,10 +8420,10 @@
         <v>3632.8512</v>
       </c>
       <c r="O86">
-        <v>203469.9105975</v>
+        <v>406939.821195</v>
       </c>
       <c r="P86">
-        <v>52404.0271615423</v>
+        <v>35293.488321472</v>
       </c>
       <c r="Q86">
         <v>69863.8854287563</v>
@@ -8438,10 +8438,10 @@
         <v>20959.1656286269</v>
       </c>
       <c r="U86">
-        <v>54499.943724405</v>
+        <v>37389.4048843347</v>
       </c>
       <c r="V86">
-        <v>-13394.9668957781</v>
+        <v>3715.57194429223</v>
       </c>
       <c r="W86">
         <v>-28758.9086001294</v>
@@ -8462,7 +8462,7 @@
         <v>29839.38264</v>
       </c>
       <c r="AC86">
-        <v>16444.4157442219</v>
+        <v>33554.9545842922</v>
       </c>
     </row>
     <row r="87">
@@ -8513,10 +8513,10 @@
         <v>3140.6628</v>
       </c>
       <c r="O87">
-        <v>153647.104685</v>
+        <v>307294.20937</v>
       </c>
       <c r="P87">
-        <v>39572.0773826496</v>
+        <v>26651.3229346976</v>
       </c>
       <c r="Q87">
         <v>52756.6149051272</v>
@@ -8531,10 +8531,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U87">
-        <v>41154.7758298034</v>
+        <v>28234.0213818515</v>
       </c>
       <c r="V87">
-        <v>1605.77144173474</v>
+        <v>14526.5258896867</v>
       </c>
       <c r="W87">
         <v>-9996.06763358905</v>
@@ -8555,7 +8555,7 @@
         <v>8767.38264</v>
       </c>
       <c r="AC87">
-        <v>10373.1540817347</v>
+        <v>23293.9085296867</v>
       </c>
     </row>
     <row r="88">
@@ -8606,10 +8606,10 @@
         <v>1767.9552</v>
       </c>
       <c r="O88">
-        <v>104065.376865625</v>
+        <v>208130.75373125</v>
       </c>
       <c r="P88">
-        <v>26802.2176833322</v>
+        <v>18050.9744772141</v>
       </c>
       <c r="Q88">
         <v>35732.121496935</v>
@@ -8624,10 +8624,10 @@
         <v>10719.6364490805</v>
       </c>
       <c r="U88">
-        <v>27874.1813282403</v>
+        <v>19122.9381221222</v>
       </c>
       <c r="V88">
-        <v>-8689.78967915979</v>
+        <v>61.4535269583066</v>
       </c>
       <c r="W88">
         <v>-16547.7298478545</v>
@@ -8648,7 +8648,7 @@
         <v>6409.38264</v>
       </c>
       <c r="AC88">
-        <v>-2280.40703915979</v>
+        <v>6470.8361669583</v>
       </c>
     </row>
     <row r="89">
@@ -8699,10 +8699,10 @@
         <v>2617.2102</v>
       </c>
       <c r="O89">
-        <v>187237.31899375</v>
+        <v>374474.6379875</v>
       </c>
       <c r="P89">
-        <v>48223.2951368063</v>
+        <v>32477.8150825552</v>
       </c>
       <c r="Q89">
         <v>64290.2263226707</v>
@@ -8717,10 +8717,10 @@
         <v>19287.0678968012</v>
       </c>
       <c r="U89">
-        <v>50152.0019264864</v>
+        <v>34406.5218722353</v>
       </c>
       <c r="V89">
-        <v>-10403.1088296852</v>
+        <v>5342.37122456591</v>
       </c>
       <c r="W89">
         <v>-24541.3332258695</v>
@@ -8741,7 +8741,7 @@
         <v>28243.38264</v>
       </c>
       <c r="AC89">
-        <v>17840.2738103148</v>
+        <v>33585.7538645659</v>
       </c>
     </row>
     <row r="90">
@@ -8792,10 +8792,10 @@
         <v>2093.7576</v>
       </c>
       <c r="O90">
-        <v>149789.855195</v>
+        <v>299579.71039</v>
       </c>
       <c r="P90">
-        <v>38578.636109445</v>
+        <v>25982.2520660441</v>
       </c>
       <c r="Q90">
         <v>51432.1810581366</v>
@@ -8810,10 +8810,10 @@
         <v>15429.654317441</v>
       </c>
       <c r="U90">
-        <v>40121.6015411891</v>
+        <v>27525.2174977882</v>
       </c>
       <c r="V90">
-        <v>-9908.74962374814</v>
+        <v>2687.63441965273</v>
       </c>
       <c r="W90">
         <v>-21219.3291406956</v>
@@ -8834,7 +8834,7 @@
         <v>1549.38264</v>
       </c>
       <c r="AC90">
-        <v>-8359.36698374814</v>
+        <v>4237.01705965273</v>
       </c>
     </row>
     <row r="91">
@@ -8978,10 +8978,10 @@
         <v>2525.6748</v>
       </c>
       <c r="O92">
-        <v>187237.31899375</v>
+        <v>374474.6379875</v>
       </c>
       <c r="P92">
-        <v>48223.2951368063</v>
+        <v>32477.8150825552</v>
       </c>
       <c r="Q92">
         <v>64290.2263226707</v>
@@ -8996,10 +8996,10 @@
         <v>19287.0678968012</v>
       </c>
       <c r="U92">
-        <v>50152.0019264864</v>
+        <v>34406.5218722353</v>
       </c>
       <c r="V92">
-        <v>-22599.0892296852</v>
+        <v>-6853.60917543409</v>
       </c>
       <c r="W92">
         <v>-36737.3136258695</v>
@@ -9020,7 +9020,7 @@
         <v>8767.38264</v>
       </c>
       <c r="AC92">
-        <v>-13831.7065896852</v>
+        <v>1913.77346456591</v>
       </c>
     </row>
     <row r="93">
@@ -9071,10 +9071,10 @@
         <v>4048.0572</v>
       </c>
       <c r="O93">
-        <v>280855.978490625</v>
+        <v>561711.95698125</v>
       </c>
       <c r="P93">
-        <v>72334.9427052094</v>
+        <v>48716.7226238328</v>
       </c>
       <c r="Q93">
         <v>96435.3394840061</v>
@@ -9089,10 +9089,10 @@
         <v>28930.6018452018</v>
       </c>
       <c r="U93">
-        <v>75228.0028897296</v>
+        <v>51609.782808353</v>
       </c>
       <c r="V93">
-        <v>-5448.82384452778</v>
+        <v>18169.3962368489</v>
       </c>
       <c r="W93">
         <v>-26656.1604388043</v>
@@ -9113,7 +9113,7 @@
         <v>30709.38264</v>
       </c>
       <c r="AC93">
-        <v>25260.5587954722</v>
+        <v>48878.7788768489</v>
       </c>
     </row>
     <row r="94">
@@ -9164,10 +9164,10 @@
         <v>1882.0164</v>
       </c>
       <c r="O94">
-        <v>101734.95529875</v>
+        <v>203469.9105975</v>
       </c>
       <c r="P94">
-        <v>26202.0135807711</v>
+        <v>17646.744160736</v>
       </c>
       <c r="Q94">
         <v>34931.9427143782</v>
@@ -9182,10 +9182,10 @@
         <v>10479.5828143134</v>
       </c>
       <c r="U94">
-        <v>27249.9718622025</v>
+        <v>18694.7024421673</v>
       </c>
       <c r="V94">
-        <v>-6333.75264788903</v>
+        <v>2221.51677214611</v>
       </c>
       <c r="W94">
         <v>-14015.7235000647</v>
@@ -9206,7 +9206,7 @@
         <v>13899.38264</v>
       </c>
       <c r="AC94">
-        <v>7565.62999211096</v>
+        <v>16120.8994121461</v>
       </c>
     </row>
     <row r="95">
@@ -9257,10 +9257,10 @@
         <v>2421.9096</v>
       </c>
       <c r="O95">
-        <v>111431.651933333</v>
+        <v>222863.303866667</v>
       </c>
       <c r="P95">
-        <v>28699.4145592438</v>
+        <v>19328.7139833233</v>
       </c>
       <c r="Q95">
         <v>38261.4222463963</v>
@@ -9275,10 +9275,10 @@
         <v>11478.4266739189</v>
       </c>
       <c r="U95">
-        <v>29847.2572266357</v>
+        <v>20476.5566507151</v>
       </c>
       <c r="V95">
-        <v>-1268.68095271679</v>
+        <v>8102.01962320375</v>
       </c>
       <c r="W95">
         <v>-9682.84597247741</v>
@@ -9299,7 +9299,7 @@
         <v>869.38264</v>
       </c>
       <c r="AC95">
-        <v>-399.298312716786</v>
+        <v>8971.40226320375</v>
       </c>
     </row>
     <row r="96">
@@ -9350,10 +9350,10 @@
         <v>1445.268</v>
       </c>
       <c r="O96">
-        <v>69644.7824583333</v>
+        <v>139289.564916667</v>
       </c>
       <c r="P96">
-        <v>17937.1340995274</v>
+        <v>12080.446239577</v>
       </c>
       <c r="Q96">
         <v>23913.3889039977</v>
@@ -9368,10 +9368,10 @@
         <v>7174.01667119931</v>
       </c>
       <c r="U96">
-        <v>18654.5357666473</v>
+        <v>12797.847906697</v>
       </c>
       <c r="V96">
-        <v>-4560.75109544799</v>
+        <v>1295.93676450234</v>
       </c>
       <c r="W96">
         <v>-9819.60423279838</v>
@@ -9392,7 +9392,7 @@
         <v>8821.38264</v>
       </c>
       <c r="AC96">
-        <v>4260.63154455201</v>
+        <v>10117.3194045023</v>
       </c>
     </row>
     <row r="97">
@@ -9443,10 +9443,10 @@
         <v>267.7818</v>
       </c>
       <c r="O97">
-        <v>14866.482409375</v>
+        <v>29732.96481875</v>
       </c>
       <c r="P97">
-        <v>3828.88824047603</v>
+        <v>2578.71063960202</v>
       </c>
       <c r="Q97">
         <v>5104.58878527643</v>
@@ -9461,10 +9461,10 @@
         <v>1531.37663558293</v>
       </c>
       <c r="U97">
-        <v>3982.02590403433</v>
+        <v>2731.84830316031</v>
       </c>
       <c r="V97">
-        <v>-965.677468451398</v>
+        <v>284.500132422616</v>
       </c>
       <c r="W97">
         <v>-2088.2403496935</v>
@@ -9485,7 +9485,7 @@
         <v>3553.38264</v>
       </c>
       <c r="AC97">
-        <v>2587.7051715486</v>
+        <v>3837.88277242261</v>
       </c>
     </row>
     <row r="98">
@@ -9536,10 +9536,10 @@
         <v>4391.3034</v>
       </c>
       <c r="O98">
-        <v>195005.390883333</v>
+        <v>390010.781766667</v>
       </c>
       <c r="P98">
-        <v>50223.9754786766</v>
+        <v>33825.2494708157</v>
       </c>
       <c r="Q98">
         <v>66957.4889311935</v>
@@ -9554,10 +9554,10 @@
         <v>20087.2466793581</v>
       </c>
       <c r="U98">
-        <v>52232.7001466124</v>
+        <v>35833.9741387515</v>
       </c>
       <c r="V98">
-        <v>-4466.93506725438</v>
+        <v>11931.7909406066</v>
       </c>
       <c r="W98">
         <v>-19191.7238518355</v>
@@ -9578,7 +9578,7 @@
         <v>1549.38264</v>
       </c>
       <c r="AC98">
-        <v>-2917.55242725438</v>
+        <v>13481.1735806066</v>
       </c>
     </row>
     <row r="99">
@@ -9629,10 +9629,10 @@
         <v>3480.0546</v>
       </c>
       <c r="O99">
-        <v>166451.030075417</v>
+        <v>332902.060150833</v>
       </c>
       <c r="P99">
-        <v>42869.7504978704</v>
+        <v>28872.2665125891</v>
       </c>
       <c r="Q99">
         <v>57152.9994805545</v>
@@ -9647,10 +9647,10 @@
         <v>17145.8998441663</v>
       </c>
       <c r="U99">
-        <v>44584.340482287</v>
+        <v>30586.8564970057</v>
       </c>
       <c r="V99">
-        <v>-18685.5760381207</v>
+        <v>-4688.0920528394</v>
       </c>
       <c r="W99">
         <v>-31254.2350363881</v>
@@ -9671,7 +9671,7 @@
         <v>20899.38264</v>
       </c>
       <c r="AC99">
-        <v>2213.8066018793</v>
+        <v>16211.2905871606</v>
       </c>
     </row>
     <row r="100">
@@ -9722,10 +9722,10 @@
         <v>3030.819</v>
       </c>
       <c r="O100">
-        <v>153647.104685</v>
+        <v>307294.20937</v>
       </c>
       <c r="P100">
-        <v>39572.0773826496</v>
+        <v>26651.3229346976</v>
       </c>
       <c r="Q100">
         <v>52756.6149051272</v>
@@ -9740,10 +9740,10 @@
         <v>15826.9844715382</v>
       </c>
       <c r="U100">
-        <v>41154.7758298034</v>
+        <v>28234.0213818515</v>
       </c>
       <c r="V100">
-        <v>-3928.37235826526</v>
+        <v>8992.38208968671</v>
       </c>
       <c r="W100">
         <v>-15530.211433589</v>
@@ -9764,7 +9764,7 @@
         <v>26103.38264</v>
       </c>
       <c r="AC100">
-        <v>22175.0102817347</v>
+        <v>35095.7647296867</v>
       </c>
     </row>
     <row r="101">
@@ -9815,10 +9815,10 @@
         <v>867.1938</v>
       </c>
       <c r="O101">
-        <v>50867.477649375</v>
+        <v>101734.95529875</v>
       </c>
       <c r="P101">
-        <v>13101.0067903856</v>
+        <v>8823.372080368</v>
       </c>
       <c r="Q101">
         <v>17465.9713571891</v>
@@ -9833,10 +9833,10 @@
         <v>5239.79140715672</v>
       </c>
       <c r="U101">
-        <v>13624.9859311012</v>
+        <v>9347.35122108367</v>
       </c>
       <c r="V101">
-        <v>-1605.31572394452</v>
+        <v>2672.31898607306</v>
       </c>
       <c r="W101">
         <v>-5446.30115003236</v>
@@ -9857,7 +9857,7 @@
         <v>19729.38264</v>
       </c>
       <c r="AC101">
-        <v>18124.0669160555</v>
+        <v>22401.7016260731</v>
       </c>
     </row>
   </sheetData>
